--- a/doc/tsv作成用excel.xlsx
+++ b/doc/tsv作成用excel.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwzn\Dropbox\my_workspace\キーボード独自配列研究\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwzn\MEGA\github\suzaku-layout\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A813D5D-E684-4CAC-8CB2-9041433B624D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2C41E-E660-4F82-AC99-71993A725B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10215" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{B8CA9E21-F10B-4B5A-9DDD-4AC911E7DA08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8CA9E21-F10B-4B5A-9DDD-4AC911E7DA08}"/>
   </bookViews>
   <sheets>
     <sheet name="朱雀配列" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Phoenix配列" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">朱雀配列!$P$34:$V$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">朱雀配列!$P$34:$V$197</definedName>
   </definedNames>
-  <calcPr calcId="191028" refMode="R1C1" calcCompleted="0"/>
+  <calcPr calcId="191028" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="439">
   <si>
     <t>ヴぁ</t>
   </si>
@@ -1163,6 +1164,407 @@
   </si>
   <si>
     <t>濁点、小文字、－</t>
+  </si>
+  <si>
+    <t>伸</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>((('a', 'ya'), ('u', 'yu'), ('o', 'yo')), ('e', 'i'))</t>
+  </si>
+  <si>
+    <t>((('a', 'ya'), ('o', 'yo'), ('u', 'yu')), ('i', 'e'))</t>
+  </si>
+  <si>
+    <t>((('a', 'ya'), ('o', 'yo'), ('u', 'yu')), ('e', 'i'))</t>
+  </si>
+  <si>
+    <t>((('u', 'yu'), ('a', 'ya'), ('o', 'yo')), ('i', 'e'))</t>
+  </si>
+  <si>
+    <t>((('u', 'yu'), ('a', 'ya'), ('o', 'yo')), ('e', 'i'))</t>
+  </si>
+  <si>
+    <t>((('u', 'yu'), ('o', 'yo'), ('a', 'ya')), ('i', 'e'))</t>
+  </si>
+  <si>
+    <t>((('u', 'yu'), ('o', 'yo'), ('a', 'ya')), ('e', 'i'))</t>
+  </si>
+  <si>
+    <t>((('o', 'yo'), ('a', 'ya'), ('u', 'yu')), ('i', 'e'))</t>
+  </si>
+  <si>
+    <t>((('o', 'yo'), ('a', 'ya'), ('u', 'yu')), ('e', 'i'))</t>
+  </si>
+  <si>
+    <t>((('o', 'yo'), ('u', 'yu'), ('a', 'ya')), ('i', 'e'))</t>
+  </si>
+  <si>
+    <t>((('o', 'yo'), ('u', 'yu'), ('a', 'ya')), ('e', 'i'))</t>
+  </si>
+  <si>
+    <t>total core</t>
+  </si>
+  <si>
+    <t>LR bottle neck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'L'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2563, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2055}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4080, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2847}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5067, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4169}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6588, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4957}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7617, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6237}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9188, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6975}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10225, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8247}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11803, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8978}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12846, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10244}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14414, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10985}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15462, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12246}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17035, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12982}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2583, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2035}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4139, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2788}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5132, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4104}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6690, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4855}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7719, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6135}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9306, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6857}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10342, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8130}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11936, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8845}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12988, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10102}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14570, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10829}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15622, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12086}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17208, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12809}</t>
+  </si>
+  <si>
+    <t>random.seed(1)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>random.seed(11)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2608, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2010}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4191, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2736}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5178, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4058}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6758, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4787}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7783, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6071}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9408, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6755}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10437, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8035}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12064, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8717}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13099, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9991}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14716, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10683}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15757, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11951}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17381, 'R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12636}</t>
+  </si>
+  <si>
+    <t>random.seed(2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2021/01/04 14:01 pythonでの評価を元に割当変更</t>
+    <rPh sb="25" eb="27">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ふぇ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ふゅ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴぇ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴぉ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴぃ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぁぃぅぇぉゃゅょのみは、二度おしにする。</t>
+    <rPh sb="12" eb="14">
+      <t>ニド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぃ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぅ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぇ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぉ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1209,7 +1611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,6 +1657,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +1878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1579,6 +1987,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1643,7 +2057,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="左中かっこ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF96038B-1D7A-4AC9-A3FE-2BC4EFA1C846}"/>
@@ -1706,7 +2120,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="">
+        <xdr:cNvPr id="4" name="左中かっこ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417CB2C5-74C7-4171-BF08-705B7A10DCA1}"/>
@@ -1849,7 +2263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2147,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1D7A9-452B-494C-9C2F-095942377D87}">
   <dimension ref="B2:AL199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V191" sqref="V191"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -2194,29 +2608,29 @@
       <c r="V3" s="28"/>
     </row>
     <row r="4" spans="3:38" ht="22.5" customHeight="1">
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="36" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -2237,10 +2651,10 @@
       <c r="AL4" s="8"/>
     </row>
     <row r="5" spans="3:38">
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="26" t="s">
-        <v>13</v>
+        <v>321</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>14</v>
@@ -2303,11 +2717,11 @@
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
     </row>
-    <row r="6" spans="3:38" ht="22.5">
+    <row r="6" spans="3:38">
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="26" t="s">
@@ -2371,11 +2785,11 @@
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
     </row>
-    <row r="7" spans="3:38" ht="22.5">
+    <row r="7" spans="3:38">
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="26" t="s">
         <v>14</v>
       </c>
@@ -2455,11 +2869,11 @@
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
     </row>
-    <row r="8" spans="3:38" ht="22.5">
+    <row r="8" spans="3:38">
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="26" t="s">
         <v>15</v>
       </c>
@@ -2543,11 +2957,11 @@
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="3:38" ht="22.5">
+    <row r="9" spans="3:38">
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="26" t="s">
         <v>16</v>
       </c>
@@ -2619,39 +3033,33 @@
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
     </row>
-    <row r="10" spans="3:38" ht="22.5">
+    <row r="10" spans="3:38">
       <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="26" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>80</v>
-      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="7"/>
       <c r="K10" s="23" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>84</v>
+        <v>428</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>85</v>
+        <v>429</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
@@ -2685,11 +3093,11 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="3:38" ht="22.5">
+    <row r="11" spans="3:38">
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -2753,11 +3161,11 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="3:38" ht="22.5">
+    <row r="12" spans="3:38">
       <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="26" t="s">
         <v>14</v>
       </c>
@@ -2823,11 +3231,11 @@
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="3:38" ht="22.5">
+    <row r="13" spans="3:38">
       <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="26" t="s">
         <v>15</v>
       </c>
@@ -2901,11 +3309,11 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="3:38" ht="22.5">
+    <row r="14" spans="3:38">
       <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="26" t="s">
         <v>16</v>
       </c>
@@ -2967,15 +3375,17 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="3:38" ht="22.5">
+    <row r="15" spans="3:38">
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="G15" s="22" t="s">
         <v>121</v>
       </c>
@@ -3043,11 +3453,11 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="3:38" ht="22.5">
+    <row r="16" spans="3:38">
       <c r="C16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="39" t="s">
         <v>124</v>
       </c>
       <c r="E16" s="26" t="s">
@@ -3111,11 +3521,11 @@
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
     </row>
-    <row r="17" spans="3:38" ht="22.5">
+    <row r="17" spans="3:38">
       <c r="C17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="26" t="s">
         <v>14</v>
       </c>
@@ -3177,11 +3587,11 @@
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
     </row>
-    <row r="18" spans="3:38" ht="22.5">
+    <row r="18" spans="3:38">
       <c r="C18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="26" t="s">
         <v>15</v>
       </c>
@@ -3243,11 +3653,11 @@
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
     </row>
-    <row r="19" spans="3:38" ht="22.5">
+    <row r="19" spans="3:38">
       <c r="C19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="26" t="s">
         <v>16</v>
       </c>
@@ -3309,11 +3719,11 @@
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
     </row>
-    <row r="20" spans="3:38" ht="22.5">
+    <row r="20" spans="3:38">
       <c r="C20" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="26" t="s">
         <v>17</v>
       </c>
@@ -3321,7 +3731,7 @@
         <v>160</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>161</v>
@@ -3505,6 +3915,21 @@
       </c>
     </row>
     <row r="27" spans="3:38">
+      <c r="C27" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="K27" s="6" t="s">
         <v>174</v>
       </c>
@@ -3618,12 +4043,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="2:28">
-      <c r="Y34" s="5" t="s">
+    <row r="34" spans="2:34">
+      <c r="AE34" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="2:28">
+    <row r="35" spans="2:34">
       <c r="E35" s="12" t="s">
         <v>213</v>
       </c>
@@ -3651,7 +4076,7 @@
       </c>
       <c r="N35" s="12"/>
       <c r="P35" s="5" t="s">
-        <v>218</v>
+        <v>418</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>219</v>
@@ -3663,16 +4088,25 @@
         <v>219</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>218</v>
+        <v>418</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="X35" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="Y35" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE35" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="2:28">
+    <row r="36" spans="2:34">
       <c r="E36" s="11" t="s">
         <v>221</v>
       </c>
@@ -3721,11 +4155,20 @@
       <c r="V36" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="X36" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="Y36" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE36" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="2:28">
+    <row r="37" spans="2:34">
       <c r="E37" s="11" t="s">
         <v>228</v>
       </c>
@@ -3750,13 +4193,13 @@
         <v>218</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>60</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>218</v>
@@ -3764,11 +4207,20 @@
       <c r="V37" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="X37" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="Y37" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE37" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="2:28">
+    <row r="38" spans="2:34">
       <c r="P38" s="5" t="s">
         <v>218</v>
       </c>
@@ -3787,8 +4239,17 @@
       <c r="V38" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="2:28">
+      <c r="X38" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34">
       <c r="E39" s="12" t="s">
         <v>236</v>
       </c>
@@ -3819,13 +4280,13 @@
         <v>218</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>63</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>218</v>
@@ -3833,20 +4294,29 @@
       <c r="V39" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="X39" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="Y39" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE39" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="Z39" s="5" t="s">
+      <c r="AF39" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AA39" s="5" t="s">
+      <c r="AG39" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AB39" s="5" t="s">
+      <c r="AH39" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="2:28">
+    <row r="40" spans="2:34">
       <c r="B40" s="5" t="s">
         <v>241</v>
       </c>
@@ -3881,7 +4351,7 @@
         <v>6</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>219</v>
@@ -3893,19 +4363,25 @@
         <v>219</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V40" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="X40" s="24" t="s">
+        <v>303</v>
+      </c>
       <c r="Z40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF40" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AA40" s="5" t="s">
+      <c r="AG40" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="2:28">
+    <row r="41" spans="2:34">
       <c r="E41" s="11" t="s">
         <v>244</v>
       </c>
@@ -3935,7 +4411,7 @@
         <v>30</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>226</v>
@@ -3947,39 +4423,51 @@
         <v>226</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V41" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="X41" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="Z41" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF41" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="AA41" s="5" t="s">
+      <c r="AG41" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="2:28">
+    <row r="42" spans="2:34">
       <c r="P42" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>117</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V42" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="2:28">
+      <c r="X42" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34">
       <c r="D43" s="8"/>
       <c r="E43" s="12" t="s">
         <v>236</v>
@@ -4009,7 +4497,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="8"/>
       <c r="P43" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>235</v>
@@ -4021,19 +4509,25 @@
         <v>235</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V43" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="X43" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="Z43" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF43" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AA43" s="5" t="s">
+      <c r="AG43" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="2:28">
+    <row r="44" spans="2:34">
       <c r="B44" s="5" t="s">
         <v>251</v>
       </c>
@@ -4070,31 +4564,37 @@
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>118</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="X44" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="Z44" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF44" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AA44" s="5" t="s">
+      <c r="AG44" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="2:28">
+    <row r="45" spans="2:34">
       <c r="D45" s="8"/>
       <c r="E45" s="11" t="s">
         <v>244</v>
@@ -4128,7 +4628,7 @@
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>219</v>
@@ -4140,16 +4640,22 @@
         <v>219</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V45" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Y45" s="5" t="s">
+      <c r="X45" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE45" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="2:28">
+    <row r="46" spans="2:34">
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -4163,7 +4669,7 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>226</v>
@@ -4175,13 +4681,13 @@
         <v>226</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V46" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="2:28">
+    <row r="47" spans="2:34">
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -4195,25 +4701,25 @@
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R47" s="5" t="s">
         <v>110</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="2:28">
+    <row r="48" spans="2:34">
       <c r="E48" t="s">
         <v>256</v>
       </c>
@@ -4245,7 +4751,7 @@
         <v>265</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>235</v>
@@ -4257,13 +4763,13 @@
         <v>235</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V48" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="5:22">
+    <row r="49" spans="4:22">
       <c r="E49" t="s">
         <v>266</v>
       </c>
@@ -4295,25 +4801,25 @@
         <v>226</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R49" s="5" t="s">
         <v>111</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V49" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="5:22">
+    <row r="50" spans="4:22">
       <c r="E50" t="s">
         <v>275</v>
       </c>
@@ -4345,7 +4851,7 @@
         <v>284</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>219</v>
@@ -4357,15 +4863,15 @@
         <v>219</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V50" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="5:22">
+    <row r="51" spans="4:22">
       <c r="P51" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>226</v>
@@ -4377,35 +4883,64 @@
         <v>226</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V51" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="5:22">
+    <row r="52" spans="4:22">
+      <c r="D52" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="P52" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R52" s="5" t="s">
         <v>101</v>
       </c>
       <c r="T52" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U52" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V52" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="5:22">
+    <row r="53" spans="4:22">
+      <c r="E53" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" s="12"/>
       <c r="P53" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q53" s="5" t="s">
         <v>235</v>
@@ -4417,33 +4952,93 @@
         <v>235</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V53" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="5:22">
+    <row r="54" spans="4:22">
+      <c r="E54" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="P54" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>102</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="5:22">
+    <row r="55" spans="4:22">
+      <c r="E55" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="P55" s="5" t="s">
         <v>286</v>
       </c>
@@ -4463,7 +5058,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="5:22">
+    <row r="56" spans="4:22">
+      <c r="E56" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="P56" s="5" t="s">
         <v>286</v>
       </c>
@@ -4483,18 +5081,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="5:22">
+    <row r="57" spans="4:22">
       <c r="P57" s="5" t="s">
         <v>286</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R57" s="5" t="s">
         <v>91</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>286</v>
@@ -4503,7 +5101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="5:22">
+    <row r="58" spans="4:22">
       <c r="P58" s="5" t="s">
         <v>286</v>
       </c>
@@ -4523,18 +5121,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="5:22">
+    <row r="59" spans="4:22">
       <c r="P59" s="5" t="s">
         <v>286</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R59" s="5" t="s">
         <v>92</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>286</v>
@@ -4543,9 +5141,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="5:22">
+    <row r="60" spans="4:22">
       <c r="P60" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q60" s="5" t="s">
         <v>219</v>
@@ -4557,15 +5155,15 @@
         <v>219</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V60" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="5:22">
+    <row r="61" spans="4:22">
       <c r="P61" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q61" s="5" t="s">
         <v>226</v>
@@ -4577,35 +5175,35 @@
         <v>226</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="5:22">
+    <row r="62" spans="4:22">
       <c r="P62" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R62" s="5" t="s">
         <v>146</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V62" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="5:22">
+    <row r="63" spans="4:22">
       <c r="P63" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q63" s="5" t="s">
         <v>235</v>
@@ -4617,27 +5215,27 @@
         <v>235</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="5:22">
+    <row r="64" spans="4:22">
       <c r="P64" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R64" s="5" t="s">
         <v>147</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V64" s="5" t="s">
         <v>147</v>
@@ -4645,7 +5243,7 @@
     </row>
     <row r="65" spans="16:22">
       <c r="P65" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q65" s="5" t="s">
         <v>219</v>
@@ -4657,7 +5255,7 @@
         <v>219</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>139</v>
@@ -4665,7 +5263,7 @@
     </row>
     <row r="66" spans="16:22">
       <c r="P66" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q66" s="5" t="s">
         <v>226</v>
@@ -4677,7 +5275,7 @@
         <v>226</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V66" s="5" t="s">
         <v>140</v>
@@ -4685,19 +5283,19 @@
     </row>
     <row r="67" spans="16:22">
       <c r="P67" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R67" s="5" t="s">
         <v>137</v>
       </c>
       <c r="T67" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>137</v>
@@ -4705,7 +5303,7 @@
     </row>
     <row r="68" spans="16:22">
       <c r="P68" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q68" s="5" t="s">
         <v>235</v>
@@ -4717,7 +5315,7 @@
         <v>235</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>136</v>
@@ -4725,19 +5323,19 @@
     </row>
     <row r="69" spans="16:22">
       <c r="P69" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R69" s="5" t="s">
         <v>138</v>
       </c>
       <c r="T69" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>138</v>
@@ -4768,13 +5366,13 @@
         <v>218</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="T71" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>218</v>
@@ -4788,13 +5386,13 @@
         <v>218</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R72" s="5" t="s">
         <v>122</v>
       </c>
       <c r="T72" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U72" s="5" t="s">
         <v>218</v>
@@ -4805,7 +5403,7 @@
     </row>
     <row r="73" spans="16:22">
       <c r="P73" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q73" s="5" t="s">
         <v>219</v>
@@ -4817,7 +5415,7 @@
         <v>219</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V73" s="5" t="s">
         <v>157</v>
@@ -4825,7 +5423,7 @@
     </row>
     <row r="74" spans="16:22">
       <c r="P74" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q74" s="5" t="s">
         <v>226</v>
@@ -4837,7 +5435,7 @@
         <v>226</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V74" s="5" t="s">
         <v>158</v>
@@ -4845,19 +5443,19 @@
     </row>
     <row r="75" spans="16:22">
       <c r="P75" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R75" s="5" t="s">
         <v>155</v>
       </c>
       <c r="T75" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V75" s="5" t="s">
         <v>155</v>
@@ -4865,7 +5463,7 @@
     </row>
     <row r="76" spans="16:22">
       <c r="P76" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q76" s="5" t="s">
         <v>235</v>
@@ -4877,7 +5475,7 @@
         <v>235</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V76" s="5" t="s">
         <v>154</v>
@@ -4885,19 +5483,19 @@
     </row>
     <row r="77" spans="16:22">
       <c r="P77" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R77" s="5" t="s">
         <v>156</v>
       </c>
       <c r="T77" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V77" s="5" t="s">
         <v>156</v>
@@ -4905,7 +5503,7 @@
     </row>
     <row r="78" spans="16:22">
       <c r="P78" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q78" s="5" t="s">
         <v>219</v>
@@ -4917,7 +5515,7 @@
         <v>219</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V78" s="5" t="s">
         <v>71</v>
@@ -4925,7 +5523,7 @@
     </row>
     <row r="79" spans="16:22">
       <c r="P79" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q79" s="5" t="s">
         <v>226</v>
@@ -4937,7 +5535,7 @@
         <v>226</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V79" s="5" t="s">
         <v>72</v>
@@ -4945,19 +5543,19 @@
     </row>
     <row r="80" spans="16:22">
       <c r="P80" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R80" s="5" t="s">
         <v>69</v>
       </c>
       <c r="T80" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V80" s="5" t="s">
         <v>69</v>
@@ -4965,7 +5563,7 @@
     </row>
     <row r="81" spans="16:22">
       <c r="P81" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q81" s="5" t="s">
         <v>235</v>
@@ -4977,7 +5575,7 @@
         <v>235</v>
       </c>
       <c r="U81" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V81" s="5" t="s">
         <v>68</v>
@@ -4985,19 +5583,19 @@
     </row>
     <row r="82" spans="16:22">
       <c r="P82" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R82" s="5" t="s">
         <v>70</v>
       </c>
       <c r="T82" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U82" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V82" s="5" t="s">
         <v>70</v>
@@ -5005,7 +5603,7 @@
     </row>
     <row r="83" spans="16:22">
       <c r="P83" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q83" s="5" t="s">
         <v>219</v>
@@ -5017,7 +5615,7 @@
         <v>219</v>
       </c>
       <c r="U83" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V83" s="5" t="s">
         <v>54</v>
@@ -5025,7 +5623,7 @@
     </row>
     <row r="84" spans="16:22">
       <c r="P84" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q84" s="5" t="s">
         <v>226</v>
@@ -5037,7 +5635,7 @@
         <v>226</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V84" s="5" t="s">
         <v>55</v>
@@ -5045,19 +5643,19 @@
     </row>
     <row r="85" spans="16:22">
       <c r="P85" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R85" s="5" t="s">
         <v>52</v>
       </c>
       <c r="T85" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>52</v>
@@ -5065,7 +5663,7 @@
     </row>
     <row r="86" spans="16:22">
       <c r="P86" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q86" s="5" t="s">
         <v>235</v>
@@ -5077,7 +5675,7 @@
         <v>235</v>
       </c>
       <c r="U86" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V86" s="5" t="s">
         <v>51</v>
@@ -5085,19 +5683,19 @@
     </row>
     <row r="87" spans="16:22">
       <c r="P87" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R87" s="5" t="s">
         <v>53</v>
       </c>
       <c r="T87" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>53</v>
@@ -5105,7 +5703,7 @@
     </row>
     <row r="88" spans="16:22">
       <c r="P88" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q88" s="5" t="s">
         <v>219</v>
@@ -5117,7 +5715,7 @@
         <v>219</v>
       </c>
       <c r="U88" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V88" s="5" t="s">
         <v>38</v>
@@ -5125,7 +5723,7 @@
     </row>
     <row r="89" spans="16:22">
       <c r="P89" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q89" s="5" t="s">
         <v>226</v>
@@ -5137,7 +5735,7 @@
         <v>226</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V89" s="5" t="s">
         <v>39</v>
@@ -5145,19 +5743,19 @@
     </row>
     <row r="90" spans="16:22">
       <c r="P90" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R90" s="5" t="s">
         <v>36</v>
       </c>
       <c r="T90" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U90" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V90" s="5" t="s">
         <v>36</v>
@@ -5165,7 +5763,7 @@
     </row>
     <row r="91" spans="16:22">
       <c r="P91" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q91" s="5" t="s">
         <v>235</v>
@@ -5177,7 +5775,7 @@
         <v>235</v>
       </c>
       <c r="U91" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V91" s="5" t="s">
         <v>35</v>
@@ -5185,19 +5783,19 @@
     </row>
     <row r="92" spans="16:22">
       <c r="P92" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R92" s="5" t="s">
         <v>37</v>
       </c>
       <c r="T92" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V92" s="5" t="s">
         <v>37</v>
@@ -5205,7 +5803,7 @@
     </row>
     <row r="93" spans="16:22">
       <c r="P93" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q93" s="5" t="s">
         <v>219</v>
@@ -5217,7 +5815,7 @@
         <v>219</v>
       </c>
       <c r="U93" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V93" s="5" t="s">
         <v>26</v>
@@ -5225,7 +5823,7 @@
     </row>
     <row r="94" spans="16:22">
       <c r="P94" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q94" s="5" t="s">
         <v>226</v>
@@ -5237,7 +5835,7 @@
         <v>226</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V94" s="5" t="s">
         <v>27</v>
@@ -5245,19 +5843,19 @@
     </row>
     <row r="95" spans="16:22">
       <c r="P95" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R95" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T95" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U95" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V95" s="5" t="s">
         <v>24</v>
@@ -5265,7 +5863,7 @@
     </row>
     <row r="96" spans="16:22">
       <c r="P96" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q96" s="5" t="s">
         <v>235</v>
@@ -5277,7 +5875,7 @@
         <v>235</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V96" s="5" t="s">
         <v>23</v>
@@ -5285,19 +5883,19 @@
     </row>
     <row r="97" spans="16:22">
       <c r="P97" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R97" s="5" t="s">
         <v>25</v>
       </c>
       <c r="T97" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V97" s="5" t="s">
         <v>25</v>
@@ -5305,7 +5903,7 @@
     </row>
     <row r="98" spans="16:22">
       <c r="P98" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q98" s="5" t="s">
         <v>219</v>
@@ -5317,7 +5915,7 @@
         <v>219</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V98" s="5" t="s">
         <v>131</v>
@@ -5325,7 +5923,7 @@
     </row>
     <row r="99" spans="16:22">
       <c r="P99" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q99" s="5" t="s">
         <v>226</v>
@@ -5337,7 +5935,7 @@
         <v>226</v>
       </c>
       <c r="U99" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V99" s="5" t="s">
         <v>132</v>
@@ -5345,19 +5943,19 @@
     </row>
     <row r="100" spans="16:22">
       <c r="P100" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R100" s="5" t="s">
         <v>129</v>
       </c>
       <c r="T100" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U100" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V100" s="5" t="s">
         <v>129</v>
@@ -5365,7 +5963,7 @@
     </row>
     <row r="101" spans="16:22">
       <c r="P101" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q101" s="5" t="s">
         <v>235</v>
@@ -5377,7 +5975,7 @@
         <v>235</v>
       </c>
       <c r="U101" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V101" s="5" t="s">
         <v>128</v>
@@ -5385,19 +5983,19 @@
     </row>
     <row r="102" spans="16:22">
       <c r="P102" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R102" s="5" t="s">
         <v>130</v>
       </c>
       <c r="T102" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U102" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V102" s="5" t="s">
         <v>130</v>
@@ -5405,7 +6003,7 @@
     </row>
     <row r="103" spans="16:22">
       <c r="P103" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q103" s="5" t="s">
         <v>219</v>
@@ -5417,7 +6015,7 @@
         <v>219</v>
       </c>
       <c r="U103" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V103" s="5" t="s">
         <v>167</v>
@@ -5425,19 +6023,19 @@
     </row>
     <row r="104" spans="16:22">
       <c r="P104" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R104" s="5" t="s">
         <v>166</v>
       </c>
       <c r="T104" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U104" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V104" s="5" t="s">
         <v>166</v>
@@ -5445,19 +6043,19 @@
     </row>
     <row r="105" spans="16:22">
       <c r="P105" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R105" s="5" t="s">
         <v>165</v>
       </c>
       <c r="T105" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U105" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V105" s="5" t="s">
         <v>165</v>
@@ -5465,7 +6063,7 @@
     </row>
     <row r="106" spans="16:22">
       <c r="P106" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q106" s="5" t="s">
         <v>235</v>
@@ -5477,7 +6075,7 @@
         <v>235</v>
       </c>
       <c r="U106" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V106" s="5" t="s">
         <v>164</v>
@@ -5485,7 +6083,7 @@
     </row>
     <row r="107" spans="16:22">
       <c r="P107" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q107" s="5" t="s">
         <v>226</v>
@@ -5497,7 +6095,7 @@
         <v>226</v>
       </c>
       <c r="U107" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V107" s="5" t="s">
         <v>168</v>
@@ -5511,7 +6109,7 @@
         <v>219</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>84</v>
+        <v>428</v>
       </c>
       <c r="T108" s="5" t="s">
         <v>219</v>
@@ -5520,7 +6118,7 @@
         <v>299</v>
       </c>
       <c r="V108" s="5" t="s">
-        <v>84</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="16:22">
@@ -5531,7 +6129,7 @@
         <v>226</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>85</v>
+        <v>429</v>
       </c>
       <c r="T109" s="5" t="s">
         <v>226</v>
@@ -5540,7 +6138,7 @@
         <v>299</v>
       </c>
       <c r="V109" s="5" t="s">
-        <v>85</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="16:22">
@@ -5548,19 +6146,19 @@
         <v>299</v>
       </c>
       <c r="Q110" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="T110" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U110" s="5" t="s">
         <v>299</v>
       </c>
       <c r="V110" s="5" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="16:22">
@@ -5571,7 +6169,7 @@
         <v>235</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>235</v>
@@ -5580,7 +6178,7 @@
         <v>299</v>
       </c>
       <c r="V111" s="5" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="16:22">
@@ -5588,19 +6186,19 @@
         <v>299</v>
       </c>
       <c r="Q112" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="T112" s="5" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="U112" s="5" t="s">
         <v>299</v>
       </c>
       <c r="V112" s="5" t="s">
-        <v>83</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="16:22">
@@ -5628,13 +6226,13 @@
         <v>299</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R114" s="5" t="s">
         <v>78</v>
       </c>
       <c r="T114" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U114" s="5" t="s">
         <v>299</v>
@@ -5648,13 +6246,13 @@
         <v>299</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R115" s="5" t="s">
         <v>79</v>
       </c>
       <c r="T115" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U115" s="5" t="s">
         <v>299</v>
@@ -5665,7 +6263,7 @@
     </row>
     <row r="116" spans="16:22">
       <c r="P116" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q116" s="5" t="s">
         <v>289</v>
@@ -5677,7 +6275,7 @@
         <v>289</v>
       </c>
       <c r="U116" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V116" s="5" t="s">
         <v>22</v>
@@ -5685,19 +6283,19 @@
     </row>
     <row r="117" spans="16:22">
       <c r="P117" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q117" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R117" s="5" t="s">
         <v>20</v>
       </c>
       <c r="T117" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U117" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V117" s="5" t="s">
         <v>20</v>
@@ -5705,19 +6303,19 @@
     </row>
     <row r="118" spans="16:22">
       <c r="P118" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q118" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R118" s="5" t="s">
         <v>21</v>
       </c>
       <c r="T118" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U118" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V118" s="5" t="s">
         <v>21</v>
@@ -5725,7 +6323,7 @@
     </row>
     <row r="119" spans="16:22">
       <c r="P119" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q119" s="5" t="s">
         <v>289</v>
@@ -5737,7 +6335,7 @@
         <v>289</v>
       </c>
       <c r="U119" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V119" s="5" t="s">
         <v>34</v>
@@ -5745,19 +6343,19 @@
     </row>
     <row r="120" spans="16:22">
       <c r="P120" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q120" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R120" s="5" t="s">
         <v>32</v>
       </c>
       <c r="T120" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U120" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V120" s="5" t="s">
         <v>32</v>
@@ -5765,19 +6363,19 @@
     </row>
     <row r="121" spans="16:22">
       <c r="P121" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q121" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R121" s="5" t="s">
         <v>33</v>
       </c>
       <c r="T121" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U121" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V121" s="5" t="s">
         <v>33</v>
@@ -5785,7 +6383,7 @@
     </row>
     <row r="122" spans="16:22">
       <c r="P122" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q122" s="5" t="s">
         <v>289</v>
@@ -5797,7 +6395,7 @@
         <v>289</v>
       </c>
       <c r="U122" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V122" s="5" t="s">
         <v>50</v>
@@ -5805,19 +6403,19 @@
     </row>
     <row r="123" spans="16:22">
       <c r="P123" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R123" s="5" t="s">
         <v>49</v>
       </c>
       <c r="T123" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U123" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V123" s="5" t="s">
         <v>49</v>
@@ -5825,19 +6423,19 @@
     </row>
     <row r="124" spans="16:22">
       <c r="P124" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q124" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R124" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T124" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U124" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V124" s="5" t="s">
         <v>48</v>
@@ -5845,7 +6443,7 @@
     </row>
     <row r="125" spans="16:22">
       <c r="P125" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q125" s="5" t="s">
         <v>300</v>
@@ -5857,7 +6455,7 @@
         <v>300</v>
       </c>
       <c r="U125" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V125" s="5" t="s">
         <v>47</v>
@@ -5865,7 +6463,7 @@
     </row>
     <row r="126" spans="16:22">
       <c r="P126" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q126" s="5" t="s">
         <v>289</v>
@@ -5877,7 +6475,7 @@
         <v>289</v>
       </c>
       <c r="U126" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V126" s="5" t="s">
         <v>67</v>
@@ -5885,19 +6483,19 @@
     </row>
     <row r="127" spans="16:22">
       <c r="P127" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q127" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R127" s="5" t="s">
         <v>65</v>
       </c>
       <c r="T127" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U127" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V127" s="5" t="s">
         <v>65</v>
@@ -5905,19 +6503,19 @@
     </row>
     <row r="128" spans="16:22">
       <c r="P128" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R128" s="5" t="s">
         <v>66</v>
       </c>
       <c r="T128" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U128" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>66</v>
@@ -5948,13 +6546,13 @@
         <v>286</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R130" s="5" t="s">
         <v>87</v>
       </c>
       <c r="T130" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U130" s="5" t="s">
         <v>286</v>
@@ -5968,13 +6566,13 @@
         <v>286</v>
       </c>
       <c r="Q131" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R131" s="5" t="s">
         <v>88</v>
       </c>
       <c r="T131" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U131" s="5" t="s">
         <v>286</v>
@@ -5985,7 +6583,7 @@
     </row>
     <row r="132" spans="16:22">
       <c r="P132" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q132" s="5" t="s">
         <v>289</v>
@@ -5997,7 +6595,7 @@
         <v>289</v>
       </c>
       <c r="U132" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V132" s="5" t="s">
         <v>98</v>
@@ -6005,19 +6603,19 @@
     </row>
     <row r="133" spans="16:22">
       <c r="P133" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R133" s="5" t="s">
         <v>96</v>
       </c>
       <c r="T133" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U133" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V133" s="5" t="s">
         <v>96</v>
@@ -6025,19 +6623,19 @@
     </row>
     <row r="134" spans="16:22">
       <c r="P134" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R134" s="5" t="s">
         <v>97</v>
       </c>
       <c r="T134" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U134" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V134" s="5" t="s">
         <v>97</v>
@@ -6045,7 +6643,7 @@
     </row>
     <row r="135" spans="16:22">
       <c r="P135" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q135" s="5" t="s">
         <v>300</v>
@@ -6057,7 +6655,7 @@
         <v>300</v>
       </c>
       <c r="U135" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V135" s="5" t="s">
         <v>95</v>
@@ -6065,7 +6663,7 @@
     </row>
     <row r="136" spans="16:22">
       <c r="P136" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q136" s="5" t="s">
         <v>246</v>
@@ -6077,7 +6675,7 @@
         <v>246</v>
       </c>
       <c r="U136" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V136" s="5" t="s">
         <v>301</v>
@@ -6085,7 +6683,7 @@
     </row>
     <row r="137" spans="16:22">
       <c r="P137" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q137" s="5" t="s">
         <v>289</v>
@@ -6097,7 +6695,7 @@
         <v>289</v>
       </c>
       <c r="U137" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V137" s="5" t="s">
         <v>108</v>
@@ -6105,19 +6703,19 @@
     </row>
     <row r="138" spans="16:22">
       <c r="P138" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R138" s="5" t="s">
         <v>106</v>
       </c>
       <c r="T138" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U138" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V138" s="5" t="s">
         <v>106</v>
@@ -6125,19 +6723,19 @@
     </row>
     <row r="139" spans="16:22">
       <c r="P139" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q139" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R139" s="5" t="s">
         <v>107</v>
       </c>
       <c r="T139" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U139" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V139" s="5" t="s">
         <v>107</v>
@@ -6145,7 +6743,7 @@
     </row>
     <row r="140" spans="16:22">
       <c r="P140" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q140" s="5" t="s">
         <v>300</v>
@@ -6157,7 +6755,7 @@
         <v>300</v>
       </c>
       <c r="U140" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V140" s="5" t="s">
         <v>105</v>
@@ -6165,7 +6763,7 @@
     </row>
     <row r="141" spans="16:22">
       <c r="P141" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q141" s="5" t="s">
         <v>289</v>
@@ -6177,7 +6775,7 @@
         <v>289</v>
       </c>
       <c r="U141" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V141" s="5" t="s">
         <v>115</v>
@@ -6185,19 +6783,19 @@
     </row>
     <row r="142" spans="16:22">
       <c r="P142" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q142" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R142" s="5" t="s">
         <v>302</v>
       </c>
       <c r="T142" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U142" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V142" s="5" t="s">
         <v>302</v>
@@ -6205,19 +6803,19 @@
     </row>
     <row r="143" spans="16:22">
       <c r="P143" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q143" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R143" s="5" t="s">
         <v>114</v>
       </c>
       <c r="T143" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U143" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V143" s="5" t="s">
         <v>114</v>
@@ -6225,7 +6823,7 @@
     </row>
     <row r="144" spans="16:22">
       <c r="P144" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q144" s="5" t="s">
         <v>289</v>
@@ -6237,7 +6835,7 @@
         <v>289</v>
       </c>
       <c r="U144" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V144" s="5" t="s">
         <v>127</v>
@@ -6245,19 +6843,19 @@
     </row>
     <row r="145" spans="16:22">
       <c r="P145" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q145" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>125</v>
       </c>
       <c r="T145" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U145" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V145" s="5" t="s">
         <v>125</v>
@@ -6265,19 +6863,19 @@
     </row>
     <row r="146" spans="16:22">
       <c r="P146" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>126</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U146" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V146" s="5" t="s">
         <v>126</v>
@@ -6285,7 +6883,7 @@
     </row>
     <row r="147" spans="16:22">
       <c r="P147" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q147" s="5" t="s">
         <v>289</v>
@@ -6297,7 +6895,7 @@
         <v>289</v>
       </c>
       <c r="U147" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V147" s="5" t="s">
         <v>144</v>
@@ -6305,19 +6903,19 @@
     </row>
     <row r="148" spans="16:22">
       <c r="P148" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q148" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>142</v>
       </c>
       <c r="T148" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U148" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V148" s="5" t="s">
         <v>142</v>
@@ -6325,19 +6923,19 @@
     </row>
     <row r="149" spans="16:22">
       <c r="P149" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q149" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>143</v>
       </c>
       <c r="T149" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U149" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V149" s="5" t="s">
         <v>143</v>
@@ -6345,7 +6943,7 @@
     </row>
     <row r="150" spans="16:22">
       <c r="P150" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q150" s="5" t="s">
         <v>289</v>
@@ -6357,7 +6955,7 @@
         <v>289</v>
       </c>
       <c r="U150" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V150" s="5" t="s">
         <v>135</v>
@@ -6365,19 +6963,19 @@
     </row>
     <row r="151" spans="16:22">
       <c r="P151" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q151" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R151" s="5" t="s">
         <v>133</v>
       </c>
       <c r="T151" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U151" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V151" s="5" t="s">
         <v>133</v>
@@ -6385,19 +6983,19 @@
     </row>
     <row r="152" spans="16:22">
       <c r="P152" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q152" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R152" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T152" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U152" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V152" s="5" t="s">
         <v>134</v>
@@ -6405,7 +7003,7 @@
     </row>
     <row r="153" spans="16:22">
       <c r="P153" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q153" s="5" t="s">
         <v>289</v>
@@ -6417,7 +7015,7 @@
         <v>289</v>
       </c>
       <c r="U153" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V153" s="5" t="s">
         <v>153</v>
@@ -6425,19 +7023,19 @@
     </row>
     <row r="154" spans="16:22">
       <c r="P154" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q154" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>151</v>
       </c>
       <c r="T154" s="5" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="U154" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V154" s="5" t="s">
         <v>151</v>
@@ -6445,19 +7043,19 @@
     </row>
     <row r="155" spans="16:22">
       <c r="P155" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q155" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>152</v>
       </c>
       <c r="T155" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U155" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V155" s="5" t="s">
         <v>152</v>
@@ -6465,7 +7063,7 @@
     </row>
     <row r="156" spans="16:22">
       <c r="P156" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q156" s="5" t="s">
         <v>289</v>
@@ -6477,7 +7075,7 @@
         <v>289</v>
       </c>
       <c r="U156" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V156" s="5" t="s">
         <v>162</v>
@@ -6485,7 +7083,7 @@
     </row>
     <row r="157" spans="16:22">
       <c r="P157" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q157" s="5" t="s">
         <v>246</v>
@@ -6494,10 +7092,10 @@
         <v>163</v>
       </c>
       <c r="T157" s="5" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="U157" s="5" t="s">
-        <v>246</v>
+        <v>420</v>
       </c>
       <c r="V157" s="5" t="s">
         <v>163</v>
@@ -6505,27 +7103,27 @@
     </row>
     <row r="158" spans="16:22">
       <c r="P158" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q158" s="5" t="s">
-        <v>290</v>
+        <v>413</v>
       </c>
       <c r="R158" s="5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="T158" s="5" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="U158" s="5" t="s">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="V158" s="5" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="16:22">
       <c r="P159" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q159" s="5" t="s">
         <v>300</v>
@@ -6534,10 +7132,10 @@
         <v>160</v>
       </c>
       <c r="T159" s="5" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="U159" s="5" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="V159" s="5" t="s">
         <v>160</v>
@@ -6545,19 +7143,19 @@
     </row>
     <row r="160" spans="16:22">
       <c r="P160" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q160" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="R160" s="5" t="s">
         <v>161</v>
       </c>
       <c r="T160" s="5" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="U160" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V160" s="5" t="s">
         <v>161</v>
@@ -6585,7 +7183,7 @@
     </row>
     <row r="162" spans="16:34">
       <c r="P162" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q162" s="5" t="s">
         <v>253</v>
@@ -6597,7 +7195,7 @@
         <v>253</v>
       </c>
       <c r="U162" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V162" s="5" t="s">
         <v>116</v>
@@ -6605,7 +7203,7 @@
     </row>
     <row r="163" spans="16:34">
       <c r="P163" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q163" s="5" t="s">
         <v>253</v>
@@ -6617,7 +7215,7 @@
         <v>253</v>
       </c>
       <c r="U163" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V163" s="5" t="s">
         <v>109</v>
@@ -6625,7 +7223,7 @@
     </row>
     <row r="164" spans="16:34">
       <c r="P164" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q164" s="5" t="s">
         <v>253</v>
@@ -6637,7 +7235,7 @@
         <v>253</v>
       </c>
       <c r="U164" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V164" s="5" t="s">
         <v>100</v>
@@ -6665,7 +7263,7 @@
     </row>
     <row r="166" spans="16:34">
       <c r="P166" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q166" s="5" t="s">
         <v>253</v>
@@ -6677,7 +7275,7 @@
         <v>253</v>
       </c>
       <c r="U166" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V166" s="5" t="s">
         <v>145</v>
@@ -6685,7 +7283,7 @@
     </row>
     <row r="167" spans="16:34">
       <c r="P167" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q167" s="5" t="s">
         <v>253</v>
@@ -6697,7 +7295,7 @@
         <v>253</v>
       </c>
       <c r="U167" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V167" s="5" t="s">
         <v>136</v>
@@ -6705,7 +7303,7 @@
     </row>
     <row r="168" spans="16:34">
       <c r="P168" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q168" s="5" t="s">
         <v>253</v>
@@ -6717,7 +7315,7 @@
         <v>253</v>
       </c>
       <c r="U168" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V168" s="5" t="s">
         <v>154</v>
@@ -6725,7 +7323,7 @@
     </row>
     <row r="169" spans="16:34">
       <c r="P169" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q169" s="5" t="s">
         <v>253</v>
@@ -6737,7 +7335,7 @@
         <v>253</v>
       </c>
       <c r="U169" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V169" s="5" t="s">
         <v>68</v>
@@ -6757,7 +7355,7 @@
     </row>
     <row r="170" spans="16:34">
       <c r="P170" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q170" s="5" t="s">
         <v>253</v>
@@ -6769,7 +7367,7 @@
         <v>253</v>
       </c>
       <c r="U170" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V170" s="5" t="s">
         <v>51</v>
@@ -6789,7 +7387,7 @@
     </row>
     <row r="171" spans="16:34">
       <c r="P171" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q171" s="5" t="s">
         <v>253</v>
@@ -6801,7 +7399,7 @@
         <v>253</v>
       </c>
       <c r="U171" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V171" s="5" t="s">
         <v>35</v>
@@ -6821,7 +7419,7 @@
     </row>
     <row r="172" spans="16:34">
       <c r="P172" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q172" s="5" t="s">
         <v>253</v>
@@ -6833,7 +7431,7 @@
         <v>253</v>
       </c>
       <c r="U172" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V172" s="5" t="s">
         <v>23</v>
@@ -6853,7 +7451,7 @@
     </row>
     <row r="173" spans="16:34">
       <c r="P173" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q173" s="5" t="s">
         <v>253</v>
@@ -6865,7 +7463,7 @@
         <v>253</v>
       </c>
       <c r="U173" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V173" s="5" t="s">
         <v>128</v>
@@ -6885,7 +7483,7 @@
     </row>
     <row r="174" spans="16:34">
       <c r="P174" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q174" s="5" t="s">
         <v>253</v>
@@ -6897,7 +7495,7 @@
         <v>253</v>
       </c>
       <c r="U174" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V174" s="5" t="s">
         <v>164</v>
@@ -6969,7 +7567,7 @@
     </row>
     <row r="177" spans="16:34">
       <c r="P177" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="Q177" s="5" t="s">
         <v>245</v>
@@ -6981,7 +7579,7 @@
         <v>245</v>
       </c>
       <c r="U177" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="V177" s="5" t="s">
         <v>116</v>
@@ -6989,7 +7587,7 @@
     </row>
     <row r="178" spans="16:34">
       <c r="P178" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Q178" s="5" t="s">
         <v>245</v>
@@ -7001,7 +7599,7 @@
         <v>245</v>
       </c>
       <c r="U178" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="V178" s="5" t="s">
         <v>109</v>
@@ -7009,7 +7607,7 @@
     </row>
     <row r="179" spans="16:34">
       <c r="P179" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Q179" s="5" t="s">
         <v>245</v>
@@ -7021,7 +7619,7 @@
         <v>245</v>
       </c>
       <c r="U179" s="5" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="V179" s="5" t="s">
         <v>100</v>
@@ -7049,7 +7647,7 @@
     </row>
     <row r="181" spans="16:34">
       <c r="P181" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q181" s="5" t="s">
         <v>245</v>
@@ -7061,7 +7659,7 @@
         <v>245</v>
       </c>
       <c r="U181" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V181" s="5" t="s">
         <v>145</v>
@@ -7069,7 +7667,7 @@
     </row>
     <row r="182" spans="16:34">
       <c r="P182" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q182" s="5" t="s">
         <v>245</v>
@@ -7081,7 +7679,7 @@
         <v>245</v>
       </c>
       <c r="U182" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="V182" s="5" t="s">
         <v>136</v>
@@ -7089,7 +7687,7 @@
     </row>
     <row r="183" spans="16:34">
       <c r="P183" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q183" s="5" t="s">
         <v>245</v>
@@ -7101,7 +7699,7 @@
         <v>245</v>
       </c>
       <c r="U183" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V183" s="5" t="s">
         <v>154</v>
@@ -7109,7 +7707,7 @@
     </row>
     <row r="184" spans="16:34">
       <c r="P184" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q184" s="5" t="s">
         <v>245</v>
@@ -7121,7 +7719,7 @@
         <v>245</v>
       </c>
       <c r="U184" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="V184" s="5" t="s">
         <v>68</v>
@@ -7141,7 +7739,7 @@
     </row>
     <row r="185" spans="16:34">
       <c r="P185" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q185" s="5" t="s">
         <v>245</v>
@@ -7153,7 +7751,7 @@
         <v>245</v>
       </c>
       <c r="U185" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="V185" s="5" t="s">
         <v>51</v>
@@ -7173,7 +7771,7 @@
     </row>
     <row r="186" spans="16:34">
       <c r="P186" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="Q186" s="5" t="s">
         <v>245</v>
@@ -7185,7 +7783,7 @@
         <v>245</v>
       </c>
       <c r="U186" s="5" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="V186" s="5" t="s">
         <v>35</v>
@@ -7205,7 +7803,7 @@
     </row>
     <row r="187" spans="16:34">
       <c r="P187" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="Q187" s="5" t="s">
         <v>245</v>
@@ -7217,7 +7815,7 @@
         <v>245</v>
       </c>
       <c r="U187" s="5" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="V187" s="5" t="s">
         <v>23</v>
@@ -7237,7 +7835,7 @@
     </row>
     <row r="188" spans="16:34">
       <c r="P188" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="Q188" s="5" t="s">
         <v>245</v>
@@ -7249,7 +7847,7 @@
         <v>245</v>
       </c>
       <c r="U188" s="5" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V188" s="5" t="s">
         <v>128</v>
@@ -7269,7 +7867,7 @@
     </row>
     <row r="189" spans="16:34">
       <c r="P189" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q189" s="5" t="s">
         <v>245</v>
@@ -7281,7 +7879,7 @@
         <v>245</v>
       </c>
       <c r="U189" s="5" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="V189" s="5" t="s">
         <v>164</v>
@@ -7332,15 +7930,24 @@
       <c r="AH190" s="8"/>
     </row>
     <row r="191" spans="16:34">
-      <c r="P191" s="24" t="s">
-        <v>303</v>
+      <c r="P191" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q191" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="R191" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T191" s="8"/>
-      <c r="U191" s="8"/>
-      <c r="V191" s="8"/>
+        <v>421</v>
+      </c>
+      <c r="T191" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="U191" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="V191" s="8" t="s">
+        <v>421</v>
+      </c>
       <c r="W191" s="8"/>
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
@@ -7355,12 +7962,6 @@
       <c r="AH191" s="8"/>
     </row>
     <row r="192" spans="16:34">
-      <c r="P192" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="R192" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="T192" s="8"/>
       <c r="U192" s="8"/>
       <c r="V192" s="8"/>
@@ -7377,13 +7978,7 @@
       <c r="AG192" s="8"/>
       <c r="AH192" s="8"/>
     </row>
-    <row r="193" spans="16:34">
-      <c r="P193" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="R193" s="5" t="s">
-        <v>248</v>
-      </c>
+    <row r="193" spans="20:34">
       <c r="T193" s="8"/>
       <c r="U193" s="8"/>
       <c r="V193" s="8"/>
@@ -7400,13 +7995,7 @@
       <c r="AG193" s="8"/>
       <c r="AH193" s="8"/>
     </row>
-    <row r="194" spans="16:34">
-      <c r="P194" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="R194" s="5" t="s">
-        <v>247</v>
-      </c>
+    <row r="194" spans="20:34">
       <c r="T194" s="8"/>
       <c r="U194" s="8"/>
       <c r="V194" s="8"/>
@@ -7423,13 +8012,7 @@
       <c r="AG194" s="8"/>
       <c r="AH194" s="8"/>
     </row>
-    <row r="195" spans="16:34">
-      <c r="P195" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="R195" s="5" t="s">
-        <v>307</v>
-      </c>
+    <row r="195" spans="20:34">
       <c r="T195" s="8"/>
       <c r="U195" s="8"/>
       <c r="V195" s="8"/>
@@ -7446,13 +8029,7 @@
       <c r="AG195" s="8"/>
       <c r="AH195" s="8"/>
     </row>
-    <row r="196" spans="16:34">
-      <c r="P196" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="R196" s="5" t="s">
-        <v>309</v>
-      </c>
+    <row r="196" spans="20:34">
       <c r="T196" s="8"/>
       <c r="U196" s="8"/>
       <c r="V196" s="8"/>
@@ -7469,7 +8046,7 @@
       <c r="AG196" s="8"/>
       <c r="AH196" s="8"/>
     </row>
-    <row r="197" spans="16:34">
+    <row r="197" spans="20:34">
       <c r="T197" s="8"/>
       <c r="U197" s="8"/>
       <c r="V197" s="8"/>
@@ -7486,7 +8063,7 @@
       <c r="AG197" s="8"/>
       <c r="AH197" s="8"/>
     </row>
-    <row r="198" spans="16:34">
+    <row r="198" spans="20:34">
       <c r="T198" s="8"/>
       <c r="U198" s="8"/>
       <c r="V198" s="8"/>
@@ -7503,7 +8080,7 @@
       <c r="AG198" s="8"/>
       <c r="AH198" s="8"/>
     </row>
-    <row r="199" spans="16:34">
+    <row r="199" spans="20:34">
       <c r="T199" s="8"/>
       <c r="U199" s="8"/>
       <c r="V199" s="8"/>
@@ -8910,13 +9487,14 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFE818-2977-465E-BC36-038C1800FC4E}">
-  <dimension ref="B1:M30"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -8930,26 +9508,26 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="41" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" ht="22.5">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
@@ -8982,7 +9560,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="22.5">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -9020,7 +9598,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="22.5">
-      <c r="B5" s="42"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="17" t="s">
         <v>14</v>
       </c>
@@ -9056,7 +9634,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="22.5">
-      <c r="B6" s="42"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
@@ -9092,7 +9670,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="22.5">
-      <c r="B7" s="42"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
@@ -9128,7 +9706,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5">
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
@@ -9164,7 +9742,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="22.5">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -9202,7 +9780,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="22.5">
-      <c r="B10" s="42"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
@@ -9238,7 +9816,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="22.5">
-      <c r="B11" s="42"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
@@ -9266,7 +9844,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" ht="22.5">
-      <c r="B12" s="42"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
@@ -9298,7 +9876,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="22.5">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
@@ -9325,8 +9903,6 @@
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75"/>
-    <row r="16" spans="2:13" ht="15.75"/>
     <row r="17" spans="4:13" ht="18.75" customHeight="1"/>
     <row r="18" spans="4:13" ht="18.75" customHeight="1"/>
     <row r="19" spans="4:13" ht="18.75" customHeight="1">
@@ -9427,7 +10003,6 @@
     </row>
     <row r="22" spans="4:13" ht="18.75" customHeight="1"/>
     <row r="23" spans="4:13" ht="18.75" customHeight="1"/>
-    <row r="24" spans="4:13" ht="15.75"/>
     <row r="25" spans="4:13" ht="18.75" customHeight="1">
       <c r="D25" t="s">
         <v>316</v>
@@ -9444,15 +10019,15 @@
       <c r="H25" t="s">
         <v>319</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-    </row>
-    <row r="26" spans="4:13" ht="15.75">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+    </row>
+    <row r="26" spans="4:13">
       <c r="D26" t="s">
         <v>267</v>
       </c>
@@ -9487,7 +10062,6 @@
     <row r="27" spans="4:13" ht="18.75" customHeight="1"/>
     <row r="28" spans="4:13" ht="18.75" customHeight="1"/>
     <row r="29" spans="4:13" ht="18.75" customHeight="1"/>
-    <row r="30" spans="4:13" ht="15.75"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="I25:M25"/>
@@ -9500,4 +10074,996 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA9AA3-AEBD-4C63-8E77-838A8C4B7FFB}">
+  <dimension ref="B4:E117"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="6" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5">
+        <v>8763.5898875000094</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8">
+        <v>8531.7208441000093</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11">
+        <v>8761.71895269999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14">
+        <v>8530.5420641000092</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17">
+        <v>8722.6852681000091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="36" customFormat="1">
+      <c r="B20" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="36">
+        <v>8506.5477905000007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23">
+        <v>8717.8910263000198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="36" customFormat="1">
+      <c r="B26" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" s="36">
+        <v>8503.5852906000091</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C29">
+        <v>8715.5855396999905</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="36" customFormat="1">
+      <c r="B32" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="36">
+        <v>8503.8857724999907</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35">
+        <v>8712.7231347000197</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="36" customFormat="1">
+      <c r="B38" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" s="36">
+        <v>8502.0417730000099</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>334</v>
+      </c>
+      <c r="C39" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45">
+        <v>8979.4153279999991</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D46" t="s">
+        <v>360</v>
+      </c>
+      <c r="E46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48">
+        <v>8750.0027015999694</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D49" t="s">
+        <v>362</v>
+      </c>
+      <c r="E49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51">
+        <v>8977.6944970000095</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" t="s">
+        <v>335</v>
+      </c>
+      <c r="D52" t="s">
+        <v>364</v>
+      </c>
+      <c r="E52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54">
+        <v>8748.9238905999791</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>334</v>
+      </c>
+      <c r="C55" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" t="s">
+        <v>366</v>
+      </c>
+      <c r="E55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>333</v>
+      </c>
+      <c r="C57">
+        <v>8942.3969902999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" t="s">
+        <v>368</v>
+      </c>
+      <c r="E58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="36" customFormat="1">
+      <c r="B60" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" s="36">
+        <v>8727.6618714999495</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" t="s">
+        <v>335</v>
+      </c>
+      <c r="D61" t="s">
+        <v>370</v>
+      </c>
+      <c r="E61" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63">
+        <v>8937.8843518000103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>334</v>
+      </c>
+      <c r="C64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64" t="s">
+        <v>372</v>
+      </c>
+      <c r="E64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" s="36" customFormat="1">
+      <c r="B66" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" s="36">
+        <v>8724.8254268999808</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67" t="s">
+        <v>374</v>
+      </c>
+      <c r="E67" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69">
+        <v>8936.1677328999795</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" t="s">
+        <v>376</v>
+      </c>
+      <c r="E70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" s="36" customFormat="1">
+      <c r="B72" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" s="36">
+        <v>8724.7413116999596</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>334</v>
+      </c>
+      <c r="C73" t="s">
+        <v>335</v>
+      </c>
+      <c r="D73" t="s">
+        <v>378</v>
+      </c>
+      <c r="E73" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75">
+        <v>8933.4517898999893</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>334</v>
+      </c>
+      <c r="C76" t="s">
+        <v>335</v>
+      </c>
+      <c r="D76" t="s">
+        <v>380</v>
+      </c>
+      <c r="E76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" s="36" customFormat="1">
+      <c r="B78" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C78" s="36">
+        <v>8722.9969656999601</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" t="s">
+        <v>382</v>
+      </c>
+      <c r="E79" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83">
+        <v>8847.5661844000006</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>334</v>
+      </c>
+      <c r="C84" t="s">
+        <v>335</v>
+      </c>
+      <c r="D84" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>333</v>
+      </c>
+      <c r="C86">
+        <v>8630.4481985000002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>334</v>
+      </c>
+      <c r="C87" t="s">
+        <v>335</v>
+      </c>
+      <c r="D87" t="s">
+        <v>388</v>
+      </c>
+      <c r="E87" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89">
+        <v>8845.7642477000009</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" t="s">
+        <v>335</v>
+      </c>
+      <c r="D90" t="s">
+        <v>390</v>
+      </c>
+      <c r="E90" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>333</v>
+      </c>
+      <c r="C92">
+        <v>8629.3170469000106</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>334</v>
+      </c>
+      <c r="C93" t="s">
+        <v>335</v>
+      </c>
+      <c r="D93" t="s">
+        <v>392</v>
+      </c>
+      <c r="E93" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" s="37" customFormat="1">
+      <c r="B95" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C95" s="37">
+        <v>8811.74991770001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" t="s">
+        <v>335</v>
+      </c>
+      <c r="D96" t="s">
+        <v>394</v>
+      </c>
+      <c r="E96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" s="36" customFormat="1">
+      <c r="B98" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" s="36">
+        <v>8610.4143147999894</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>334</v>
+      </c>
+      <c r="C99" t="s">
+        <v>335</v>
+      </c>
+      <c r="D99" t="s">
+        <v>396</v>
+      </c>
+      <c r="E99" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" s="37" customFormat="1">
+      <c r="B101" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C101" s="37">
+        <v>8807.3133718000099</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" t="s">
+        <v>335</v>
+      </c>
+      <c r="D102" t="s">
+        <v>398</v>
+      </c>
+      <c r="E102" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" s="36" customFormat="1">
+      <c r="B104" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" s="36">
+        <v>8607.7778622000005</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" t="s">
+        <v>400</v>
+      </c>
+      <c r="E105" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" s="37" customFormat="1">
+      <c r="B107" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="37">
+        <v>8803.4640607000092</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" t="s">
+        <v>402</v>
+      </c>
+      <c r="E108" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" s="36" customFormat="1">
+      <c r="B110" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C110" s="36">
+        <v>8605.6946834999799</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" t="s">
+        <v>404</v>
+      </c>
+      <c r="E111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" s="37" customFormat="1">
+      <c r="B113" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="37">
+        <v>8800.8943270000309</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" t="s">
+        <v>335</v>
+      </c>
+      <c r="D114" t="s">
+        <v>406</v>
+      </c>
+      <c r="E114" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" s="36" customFormat="1">
+      <c r="B116" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C116" s="36">
+        <v>8604.1532417000108</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>334</v>
+      </c>
+      <c r="C117" t="s">
+        <v>335</v>
+      </c>
+      <c r="D117" t="s">
+        <v>408</v>
+      </c>
+      <c r="E117" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/tsv作成用excel.xlsx
+++ b/doc/tsv作成用excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwzn\MEGA\github\suzaku-layout\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2C41E-E660-4F82-AC99-71993A725B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9414FA36-18FF-4D80-B214-5D8C8356B362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8CA9E21-F10B-4B5A-9DDD-4AC911E7DA08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8CA9E21-F10B-4B5A-9DDD-4AC911E7DA08}"/>
   </bookViews>
   <sheets>
     <sheet name="朱雀配列" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">朱雀配列!$P$34:$V$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">朱雀配列!$E$60:$K$218</definedName>
   </definedNames>
   <calcPr calcId="191028" refMode="R1C1"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="449">
   <si>
     <t>ヴぁ</t>
   </si>
@@ -1564,6 +1564,52 @@
   </si>
   <si>
     <t>h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a, y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>w, f</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v,  小文字母音</t>
+    <rPh sb="4" eb="7">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ボイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぃ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぅ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぉ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぇ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2559,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1D7A9-452B-494C-9C2F-095942377D87}">
-  <dimension ref="B2:AL199"/>
+  <dimension ref="B2:AL218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC59" sqref="AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -4075,33 +4121,6 @@
         <v>45</v>
       </c>
       <c r="N35" s="12"/>
-      <c r="P35" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y35" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="AE35" s="5" t="s">
         <v>220</v>
       </c>
@@ -4136,33 +4155,6 @@
       </c>
       <c r="N36" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X36" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="Z36" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="AE36" s="5" t="s">
         <v>227</v>
@@ -4189,64 +4181,8 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="P37" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="AE37" s="5" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="2:34">
-      <c r="P38" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z38" s="5" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="39" spans="2:34">
@@ -4276,33 +4212,6 @@
         <v>79</v>
       </c>
       <c r="N39" s="12"/>
-      <c r="P39" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="X39" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="AE39" s="5" t="s">
         <v>238</v>
       </c>
@@ -4350,30 +4259,6 @@
       <c r="N40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="X40" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="AF40" s="5" t="s">
         <v>243</v>
       </c>
@@ -4410,61 +4295,11 @@
       <c r="N41" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P41" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z41" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="AF41" s="5" t="s">
         <v>249</v>
       </c>
       <c r="AG41" s="5" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="2:34">
-      <c r="P42" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z42" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:34">
@@ -4496,30 +4331,6 @@
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="X43" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z43" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="AF43" s="5" t="s">
         <v>250</v>
       </c>
@@ -4563,30 +4374,6 @@
         <v>6</v>
       </c>
       <c r="O44" s="8"/>
-      <c r="P44" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="AF44" s="5" t="s">
         <v>252</v>
       </c>
@@ -4627,30 +4414,6 @@
         <v>30</v>
       </c>
       <c r="O45" s="8"/>
-      <c r="P45" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="X45" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z45" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="AE45" s="5" t="s">
         <v>255</v>
       </c>
@@ -4668,24 +4431,6 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="U46" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V46" s="5" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="47" spans="2:34">
       <c r="D47" s="8"/>
@@ -4700,24 +4445,6 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="48" spans="2:34">
       <c r="E48" t="s">
@@ -4750,26 +4477,8 @@
       <c r="N48" t="s">
         <v>265</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="U48" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="4:22">
+    </row>
+    <row r="49" spans="4:15">
       <c r="E49" t="s">
         <v>266</v>
       </c>
@@ -4800,26 +4509,8 @@
       <c r="N49" t="s">
         <v>226</v>
       </c>
-      <c r="P49" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="4:22">
+    </row>
+    <row r="50" spans="4:15">
       <c r="E50" t="s">
         <v>275</v>
       </c>
@@ -4850,71 +4541,15 @@
       <c r="N50" t="s">
         <v>284</v>
       </c>
-      <c r="P50" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="U50" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="4:22">
-      <c r="P51" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q51" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="U51" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="4:22">
+    </row>
+    <row r="52" spans="4:15">
       <c r="D52" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="P52" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q52" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T52" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="U52" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="4:22">
+    </row>
+    <row r="53" spans="4:15">
       <c r="E53" s="12" t="s">
-        <v>236</v>
+        <v>441</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>229</v>
@@ -4939,28 +4574,10 @@
         <v>44</v>
       </c>
       <c r="N53" s="12"/>
-      <c r="P53" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="U53" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="4:22">
+    </row>
+    <row r="54" spans="4:15">
       <c r="E54" s="11" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>225</v>
@@ -4989,28 +4606,10 @@
       <c r="N54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P54" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q54" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T54" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="U54" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V54" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="4:22">
+    </row>
+    <row r="55" spans="4:15">
       <c r="E55" s="11" t="s">
-        <v>244</v>
+        <v>440</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>217</v>
@@ -5039,2311 +4638,2272 @@
       <c r="N55" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P55" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T55" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="U55" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="4:22">
+    </row>
+    <row r="56" spans="4:15">
       <c r="E56" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="P56" s="5" t="s">
+    </row>
+    <row r="61" spans="4:15">
+      <c r="E61" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15">
+      <c r="E62" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15">
+      <c r="E63" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15">
+      <c r="E64" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="65" spans="5:15">
+      <c r="E65" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66" spans="5:15">
+      <c r="E66" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M66" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="5:15">
+      <c r="E67" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="5:15">
+      <c r="E68" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="5:15">
+      <c r="E69" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="5:15">
+      <c r="E70" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="5:15">
+      <c r="E71" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="5:15">
+      <c r="E72" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="5:15">
+      <c r="E73" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="5:15">
+      <c r="E74" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="5:15">
+      <c r="E75" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="5:15">
+      <c r="E76" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="5:15">
+      <c r="E77" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="5:15">
+      <c r="E78" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="5:15">
+      <c r="E79" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="5:15">
+      <c r="E80" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11">
+      <c r="E81" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="Q56" s="5" t="s">
+      <c r="F81" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11">
+      <c r="E82" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T56" s="5" t="s">
+      <c r="I82" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U56" s="5" t="s">
+      <c r="J82" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="V56" s="5" t="s">
+      <c r="K82" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="4:22">
-      <c r="P57" s="5" t="s">
+    <row r="83" spans="5:11">
+      <c r="E83" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="Q57" s="5" t="s">
+      <c r="F83" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R57" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="T57" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U57" s="5" t="s">
+      <c r="J83" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="V57" s="5" t="s">
+      <c r="K83" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="4:22">
-      <c r="P58" s="5" t="s">
+    <row r="84" spans="5:11">
+      <c r="E84" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="Q58" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R58" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="T58" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U58" s="5" t="s">
+      <c r="J84" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="V58" s="5" t="s">
+      <c r="K84" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="4:22">
-      <c r="P59" s="5" t="s">
+    <row r="85" spans="5:11">
+      <c r="E85" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="Q59" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R59" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="T59" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U59" s="5" t="s">
+      <c r="J85" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="V59" s="5" t="s">
+      <c r="K85" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="4:22">
-      <c r="P60" s="5" t="s">
+    <row r="86" spans="5:11">
+      <c r="E86" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Q60" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R60" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="T60" s="5" t="s">
+      <c r="I86" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U60" s="5" t="s">
+      <c r="J86" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V60" s="5" t="s">
+      <c r="K86" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="4:22">
-      <c r="P61" s="5" t="s">
+    <row r="87" spans="5:11">
+      <c r="E87" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Q61" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R61" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="T61" s="5" t="s">
+      <c r="I87" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U61" s="5" t="s">
+      <c r="J87" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V61" s="5" t="s">
+      <c r="K87" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="4:22">
-      <c r="P62" s="5" t="s">
+    <row r="88" spans="5:11">
+      <c r="E88" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="F88" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R62" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="T62" s="5" t="s">
+      <c r="I88" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U62" s="5" t="s">
+      <c r="J88" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V62" s="5" t="s">
+      <c r="K88" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="4:22">
-      <c r="P63" s="5" t="s">
+    <row r="89" spans="5:11">
+      <c r="E89" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Q63" s="5" t="s">
+      <c r="F89" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R63" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="T63" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U63" s="5" t="s">
+      <c r="J89" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V63" s="5" t="s">
+      <c r="K89" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="4:22">
-      <c r="P64" s="5" t="s">
+    <row r="90" spans="5:11">
+      <c r="E90" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Q64" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R64" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="T64" s="5" t="s">
+      <c r="I90" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U64" s="5" t="s">
+      <c r="J90" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V64" s="5" t="s">
+      <c r="K90" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="16:22">
-      <c r="P65" s="5" t="s">
+    <row r="91" spans="5:11">
+      <c r="E91" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q65" s="5" t="s">
+      <c r="F91" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R65" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="T65" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U65" s="5" t="s">
+      <c r="J91" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="V65" s="5" t="s">
+      <c r="K91" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="16:22">
-      <c r="P66" s="5" t="s">
+    <row r="92" spans="5:11">
+      <c r="E92" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q66" s="5" t="s">
+      <c r="F92" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R66" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="T66" s="5" t="s">
+      <c r="I92" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U66" s="5" t="s">
+      <c r="J92" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="V66" s="5" t="s">
+      <c r="K92" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="16:22">
-      <c r="P67" s="5" t="s">
+    <row r="93" spans="5:11">
+      <c r="E93" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q67" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R67" s="5" t="s">
+      <c r="G93" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="T67" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U67" s="5" t="s">
+      <c r="J93" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="V67" s="5" t="s">
+      <c r="K93" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="16:22">
-      <c r="P68" s="5" t="s">
+    <row r="94" spans="5:11">
+      <c r="E94" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="F94" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R68" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="T68" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U68" s="5" t="s">
+      <c r="J94" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="V68" s="5" t="s">
+      <c r="K94" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="16:22">
-      <c r="P69" s="5" t="s">
+    <row r="95" spans="5:11">
+      <c r="E95" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q69" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R69" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="T69" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U69" s="5" t="s">
+      <c r="J95" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="V69" s="5" t="s">
+      <c r="K95" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="16:22">
-      <c r="P70" s="5" t="s">
+    <row r="96" spans="5:11">
+      <c r="E96" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q70" s="5" t="s">
+      <c r="F96" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="R70" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T70" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="U70" s="5" t="s">
+      <c r="J96" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="V70" s="5" t="s">
+      <c r="K96" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="16:22">
-      <c r="P71" s="5" t="s">
+    <row r="97" spans="5:11">
+      <c r="E97" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q71" s="5" t="s">
+      <c r="F97" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="R71" s="5" t="s">
+      <c r="G97" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="T71" s="5" t="s">
+      <c r="I97" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U71" s="5" t="s">
+      <c r="J97" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="V71" s="5" t="s">
+      <c r="K97" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="16:22">
-      <c r="P72" s="5" t="s">
+    <row r="98" spans="5:11">
+      <c r="E98" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q72" s="5" t="s">
+      <c r="F98" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="R72" s="5" t="s">
+      <c r="G98" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="T72" s="5" t="s">
+      <c r="I98" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="U72" s="5" t="s">
+      <c r="J98" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="V72" s="5" t="s">
+      <c r="K98" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="16:22">
-      <c r="P73" s="5" t="s">
+    <row r="99" spans="5:11">
+      <c r="E99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="Q73" s="5" t="s">
+      <c r="F99" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R73" s="5" t="s">
+      <c r="G99" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="T73" s="5" t="s">
+      <c r="I99" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U73" s="5" t="s">
+      <c r="J99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="V73" s="5" t="s">
+      <c r="K99" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="16:22">
-      <c r="P74" s="5" t="s">
+    <row r="100" spans="5:11">
+      <c r="E100" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="Q74" s="5" t="s">
+      <c r="F100" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R74" s="5" t="s">
+      <c r="G100" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="T74" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U74" s="5" t="s">
+      <c r="J100" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="V74" s="5" t="s">
+      <c r="K100" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="16:22">
-      <c r="P75" s="5" t="s">
+    <row r="101" spans="5:11">
+      <c r="E101" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="Q75" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R75" s="5" t="s">
+      <c r="G101" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="T75" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U75" s="5" t="s">
+      <c r="J101" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="V75" s="5" t="s">
+      <c r="K101" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="16:22">
-      <c r="P76" s="5" t="s">
+    <row r="102" spans="5:11">
+      <c r="E102" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="F102" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R76" s="5" t="s">
+      <c r="G102" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="T76" s="5" t="s">
+      <c r="I102" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U76" s="5" t="s">
+      <c r="J102" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="V76" s="5" t="s">
+      <c r="K102" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="16:22">
-      <c r="P77" s="5" t="s">
+    <row r="103" spans="5:11">
+      <c r="E103" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="Q77" s="5" t="s">
+      <c r="F103" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R77" s="5" t="s">
+      <c r="G103" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="T77" s="5" t="s">
+      <c r="I103" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U77" s="5" t="s">
+      <c r="J103" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="V77" s="5" t="s">
+      <c r="K103" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="16:22">
-      <c r="P78" s="5" t="s">
+    <row r="104" spans="5:11">
+      <c r="E104" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="Q78" s="5" t="s">
+      <c r="F104" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R78" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="T78" s="5" t="s">
+      <c r="I104" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U78" s="5" t="s">
+      <c r="J104" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="V78" s="5" t="s">
+      <c r="K104" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="16:22">
-      <c r="P79" s="5" t="s">
+    <row r="105" spans="5:11">
+      <c r="E105" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="Q79" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R79" s="5" t="s">
+      <c r="G105" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="T79" s="5" t="s">
+      <c r="I105" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U79" s="5" t="s">
+      <c r="J105" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="V79" s="5" t="s">
+      <c r="K105" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="16:22">
-      <c r="P80" s="5" t="s">
+    <row r="106" spans="5:11">
+      <c r="E106" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="Q80" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R80" s="5" t="s">
+      <c r="G106" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T80" s="5" t="s">
+      <c r="I106" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U80" s="5" t="s">
+      <c r="J106" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="V80" s="5" t="s">
+      <c r="K106" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="16:22">
-      <c r="P81" s="5" t="s">
+    <row r="107" spans="5:11">
+      <c r="E107" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="Q81" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R81" s="5" t="s">
+      <c r="G107" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="T81" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U81" s="5" t="s">
+      <c r="J107" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="V81" s="5" t="s">
+      <c r="K107" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="16:22">
-      <c r="P82" s="5" t="s">
+    <row r="108" spans="5:11">
+      <c r="E108" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="Q82" s="5" t="s">
+      <c r="F108" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R82" s="5" t="s">
+      <c r="G108" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T82" s="5" t="s">
+      <c r="I108" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U82" s="5" t="s">
+      <c r="J108" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="V82" s="5" t="s">
+      <c r="K108" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="16:22">
-      <c r="P83" s="5" t="s">
+    <row r="109" spans="5:11">
+      <c r="E109" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Q83" s="5" t="s">
+      <c r="F109" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R83" s="5" t="s">
+      <c r="G109" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T83" s="5" t="s">
+      <c r="I109" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U83" s="5" t="s">
+      <c r="J109" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="V83" s="5" t="s">
+      <c r="K109" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="16:22">
-      <c r="P84" s="5" t="s">
+    <row r="110" spans="5:11">
+      <c r="E110" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Q84" s="5" t="s">
+      <c r="F110" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R84" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T84" s="5" t="s">
+      <c r="I110" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U84" s="5" t="s">
+      <c r="J110" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="V84" s="5" t="s">
+      <c r="K110" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="16:22">
-      <c r="P85" s="5" t="s">
+    <row r="111" spans="5:11">
+      <c r="E111" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Q85" s="5" t="s">
+      <c r="F111" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R85" s="5" t="s">
+      <c r="G111" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T85" s="5" t="s">
+      <c r="I111" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U85" s="5" t="s">
+      <c r="J111" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="V85" s="5" t="s">
+      <c r="K111" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="16:22">
-      <c r="P86" s="5" t="s">
+    <row r="112" spans="5:11">
+      <c r="E112" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Q86" s="5" t="s">
+      <c r="F112" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R86" s="5" t="s">
+      <c r="G112" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T86" s="5" t="s">
+      <c r="I112" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U86" s="5" t="s">
+      <c r="J112" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="V86" s="5" t="s">
+      <c r="K112" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="16:22">
-      <c r="P87" s="5" t="s">
+    <row r="113" spans="5:11">
+      <c r="E113" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Q87" s="5" t="s">
+      <c r="F113" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R87" s="5" t="s">
+      <c r="G113" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T87" s="5" t="s">
+      <c r="I113" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U87" s="5" t="s">
+      <c r="J113" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="V87" s="5" t="s">
+      <c r="K113" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="16:22">
-      <c r="P88" s="5" t="s">
+    <row r="114" spans="5:11">
+      <c r="E114" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="Q88" s="5" t="s">
+      <c r="F114" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R88" s="5" t="s">
+      <c r="G114" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T88" s="5" t="s">
+      <c r="I114" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U88" s="5" t="s">
+      <c r="J114" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="V88" s="5" t="s">
+      <c r="K114" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="16:22">
-      <c r="P89" s="5" t="s">
+    <row r="115" spans="5:11">
+      <c r="E115" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="Q89" s="5" t="s">
+      <c r="F115" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R89" s="5" t="s">
+      <c r="G115" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T89" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U89" s="5" t="s">
+      <c r="J115" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="V89" s="5" t="s">
+      <c r="K115" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="16:22">
-      <c r="P90" s="5" t="s">
+    <row r="116" spans="5:11">
+      <c r="E116" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="Q90" s="5" t="s">
+      <c r="F116" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R90" s="5" t="s">
+      <c r="G116" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T90" s="5" t="s">
+      <c r="I116" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U90" s="5" t="s">
+      <c r="J116" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="V90" s="5" t="s">
+      <c r="K116" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="16:22">
-      <c r="P91" s="5" t="s">
+    <row r="117" spans="5:11">
+      <c r="E117" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="Q91" s="5" t="s">
+      <c r="F117" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R91" s="5" t="s">
+      <c r="G117" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T91" s="5" t="s">
+      <c r="I117" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U91" s="5" t="s">
+      <c r="J117" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="V91" s="5" t="s">
+      <c r="K117" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="16:22">
-      <c r="P92" s="5" t="s">
+    <row r="118" spans="5:11">
+      <c r="E118" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="Q92" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R92" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T92" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U92" s="5" t="s">
+      <c r="J118" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="V92" s="5" t="s">
+      <c r="K118" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="16:22">
-      <c r="P93" s="5" t="s">
+    <row r="119" spans="5:11">
+      <c r="E119" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="Q93" s="5" t="s">
+      <c r="F119" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R93" s="5" t="s">
+      <c r="G119" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T93" s="5" t="s">
+      <c r="I119" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U93" s="5" t="s">
+      <c r="J119" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="V93" s="5" t="s">
+      <c r="K119" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="16:22">
-      <c r="P94" s="5" t="s">
+    <row r="120" spans="5:11">
+      <c r="E120" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="Q94" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R94" s="5" t="s">
+      <c r="G120" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T94" s="5" t="s">
+      <c r="I120" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U94" s="5" t="s">
+      <c r="J120" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="K120" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="16:22">
-      <c r="P95" s="5" t="s">
+    <row r="121" spans="5:11">
+      <c r="E121" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="Q95" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R95" s="5" t="s">
+      <c r="G121" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T95" s="5" t="s">
+      <c r="I121" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U95" s="5" t="s">
+      <c r="J121" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="V95" s="5" t="s">
+      <c r="K121" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="16:22">
-      <c r="P96" s="5" t="s">
+    <row r="122" spans="5:11">
+      <c r="E122" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="Q96" s="5" t="s">
+      <c r="F122" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R96" s="5" t="s">
+      <c r="G122" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T96" s="5" t="s">
+      <c r="I122" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U96" s="5" t="s">
+      <c r="J122" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="V96" s="5" t="s">
+      <c r="K122" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="16:22">
-      <c r="P97" s="5" t="s">
+    <row r="123" spans="5:11">
+      <c r="E123" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="Q97" s="5" t="s">
+      <c r="F123" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R97" s="5" t="s">
+      <c r="G123" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T97" s="5" t="s">
+      <c r="I123" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U97" s="5" t="s">
+      <c r="J123" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="V97" s="5" t="s">
+      <c r="K123" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="16:22">
-      <c r="P98" s="5" t="s">
+    <row r="124" spans="5:11">
+      <c r="E124" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="Q98" s="5" t="s">
+      <c r="F124" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R98" s="5" t="s">
+      <c r="G124" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="T98" s="5" t="s">
+      <c r="I124" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U98" s="5" t="s">
+      <c r="J124" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="V98" s="5" t="s">
+      <c r="K124" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="16:22">
-      <c r="P99" s="5" t="s">
+    <row r="125" spans="5:11">
+      <c r="E125" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="Q99" s="5" t="s">
+      <c r="F125" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R99" s="5" t="s">
+      <c r="G125" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="T99" s="5" t="s">
+      <c r="I125" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U99" s="5" t="s">
+      <c r="J125" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="V99" s="5" t="s">
+      <c r="K125" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="16:22">
-      <c r="P100" s="5" t="s">
+    <row r="126" spans="5:11">
+      <c r="E126" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="Q100" s="5" t="s">
+      <c r="F126" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R100" s="5" t="s">
+      <c r="G126" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T100" s="5" t="s">
+      <c r="I126" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U100" s="5" t="s">
+      <c r="J126" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="V100" s="5" t="s">
+      <c r="K126" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="16:22">
-      <c r="P101" s="5" t="s">
+    <row r="127" spans="5:11">
+      <c r="E127" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="Q101" s="5" t="s">
+      <c r="F127" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R101" s="5" t="s">
+      <c r="G127" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="T101" s="5" t="s">
+      <c r="I127" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U101" s="5" t="s">
+      <c r="J127" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="V101" s="5" t="s">
+      <c r="K127" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="16:22">
-      <c r="P102" s="5" t="s">
+    <row r="128" spans="5:11">
+      <c r="E128" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="Q102" s="5" t="s">
+      <c r="F128" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R102" s="5" t="s">
+      <c r="G128" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="T102" s="5" t="s">
+      <c r="I128" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U102" s="5" t="s">
+      <c r="J128" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="V102" s="5" t="s">
+      <c r="K128" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="16:22">
-      <c r="P103" s="5" t="s">
+    <row r="129" spans="5:11">
+      <c r="E129" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="Q103" s="5" t="s">
+      <c r="F129" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R103" s="5" t="s">
+      <c r="G129" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="T103" s="5" t="s">
+      <c r="I129" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U103" s="5" t="s">
+      <c r="J129" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="V103" s="5" t="s">
+      <c r="K129" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="16:22">
-      <c r="P104" s="5" t="s">
+    <row r="130" spans="5:11">
+      <c r="E130" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="Q104" s="5" t="s">
+      <c r="F130" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="R104" s="5" t="s">
+      <c r="G130" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="T104" s="5" t="s">
+      <c r="I130" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="U104" s="5" t="s">
+      <c r="J130" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="V104" s="5" t="s">
+      <c r="K130" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="16:22">
-      <c r="P105" s="5" t="s">
+    <row r="131" spans="5:11">
+      <c r="E131" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="Q105" s="5" t="s">
+      <c r="F131" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R105" s="5" t="s">
+      <c r="G131" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="T105" s="5" t="s">
+      <c r="I131" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="U105" s="5" t="s">
+      <c r="J131" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="V105" s="5" t="s">
+      <c r="K131" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="16:22">
-      <c r="P106" s="5" t="s">
+    <row r="132" spans="5:11">
+      <c r="E132" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="Q106" s="5" t="s">
+      <c r="F132" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R106" s="5" t="s">
+      <c r="G132" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="T106" s="5" t="s">
+      <c r="I132" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U106" s="5" t="s">
+      <c r="J132" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="V106" s="5" t="s">
+      <c r="K132" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="16:22">
-      <c r="P107" s="5" t="s">
+    <row r="133" spans="5:11">
+      <c r="E133" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="Q107" s="5" t="s">
+      <c r="F133" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R107" s="5" t="s">
+      <c r="G133" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="T107" s="5" t="s">
+      <c r="I133" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U107" s="5" t="s">
+      <c r="J133" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="V107" s="5" t="s">
+      <c r="K133" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="16:22">
-      <c r="P108" s="5" t="s">
+    <row r="134" spans="5:11">
+      <c r="E134" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="Q108" s="5" t="s">
+      <c r="F134" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R108" s="5" t="s">
+      <c r="G134" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="5:11">
+      <c r="E135" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="5:11">
+      <c r="E136" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="137" spans="5:11">
+      <c r="E137" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="5:11">
+      <c r="E138" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="5:11">
+      <c r="E139" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="T108" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="U108" s="5" t="s">
+      <c r="I139" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J139" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="V108" s="5" t="s">
+      <c r="K139" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="109" spans="16:22">
-      <c r="P109" s="5" t="s">
+    <row r="140" spans="5:11">
+      <c r="E140" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="Q109" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="R109" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="T109" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="U109" s="5" t="s">
+      <c r="F140" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J140" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="V109" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="110" spans="16:22">
-      <c r="P110" s="5" t="s">
+      <c r="K140" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="141" spans="5:11">
+      <c r="E141" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="Q110" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="R110" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="T110" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="U110" s="5" t="s">
+      <c r="F141" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J141" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="V110" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="111" spans="16:22">
-      <c r="P111" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q111" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="R111" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="T111" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="U111" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="V111" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="112" spans="16:22">
-      <c r="P112" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q112" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="R112" s="5" t="s">
+      <c r="K141" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="T112" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="U112" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="V112" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="113" spans="16:22">
-      <c r="P113" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q113" s="5" t="s">
+    </row>
+    <row r="142" spans="5:11">
+      <c r="E142" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="R113" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T113" s="5" t="s">
+      <c r="G142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I142" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="U113" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="V113" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="16:22">
-      <c r="P114" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q114" s="5" t="s">
+      <c r="J142" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="5:11">
+      <c r="E143" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="R114" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="T114" s="5" t="s">
+      <c r="G143" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U114" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="V114" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="115" spans="16:22">
-      <c r="P115" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q115" s="5" t="s">
+      <c r="J143" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="5:11">
+      <c r="E144" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="R115" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T115" s="5" t="s">
+      <c r="G144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="U115" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="V115" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="16:22">
-      <c r="P116" s="5" t="s">
+      <c r="J144" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="Q116" s="5" t="s">
+      <c r="K144" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="5:11">
+      <c r="E145" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="R116" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T116" s="5" t="s">
+      <c r="G145" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="U116" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="V116" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="16:22">
-      <c r="P117" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q117" s="5" t="s">
+      <c r="J145" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="5:11">
+      <c r="E146" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="R117" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T117" s="5" t="s">
+      <c r="G146" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I146" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U117" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="V117" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="16:22">
-      <c r="P118" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q118" s="5" t="s">
+      <c r="J146" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="5:11">
+      <c r="E147" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F147" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="R118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T118" s="5" t="s">
+      <c r="G147" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="U118" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="V118" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="16:22">
-      <c r="P119" s="5" t="s">
+      <c r="J147" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="Q119" s="5" t="s">
+      <c r="K147" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="5:11">
+      <c r="E148" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="R119" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T119" s="5" t="s">
+      <c r="G148" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I148" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="U119" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="V119" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" spans="16:22">
-      <c r="P120" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q120" s="5" t="s">
+      <c r="J148" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="5:11">
+      <c r="E149" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="R120" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T120" s="5" t="s">
+      <c r="G149" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I149" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U120" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="V120" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="16:22">
-      <c r="P121" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q121" s="5" t="s">
+      <c r="J149" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="5:11">
+      <c r="E150" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="R121" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T121" s="5" t="s">
+      <c r="G150" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I150" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="U121" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="V121" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" spans="16:22">
-      <c r="P122" s="5" t="s">
+      <c r="J150" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Q122" s="5" t="s">
+      <c r="K150" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="5:11">
+      <c r="E151" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="5:11">
+      <c r="E152" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F152" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="R122" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T122" s="5" t="s">
+      <c r="G152" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I152" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="U122" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="V122" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="16:22">
-      <c r="P123" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q123" s="5" t="s">
+      <c r="J152" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="5:11">
+      <c r="E153" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="R123" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T123" s="5" t="s">
+      <c r="G153" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I153" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U123" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="V123" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="16:22">
-      <c r="P124" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q124" s="5" t="s">
+      <c r="J153" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="5:11">
+      <c r="E154" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F154" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="R124" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T124" s="5" t="s">
+      <c r="G154" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I154" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="U124" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="V124" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="125" spans="16:22">
-      <c r="P125" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q125" s="5" t="s">
+      <c r="J154" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="5:11">
+      <c r="E155" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J155" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="5:11">
+      <c r="E156" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="5:11">
+      <c r="E157" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="5:11">
+      <c r="E158" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="5:11">
+      <c r="E159" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="160" spans="5:11">
+      <c r="E160" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="161" spans="5:34">
+      <c r="E161" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F161" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="R125" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T125" s="5" t="s">
+      <c r="G161" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I161" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="U125" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="V125" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="16:22">
-      <c r="P126" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q126" s="5" t="s">
+      <c r="J161" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="5:34">
+      <c r="E162" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="163" spans="5:34">
+      <c r="E163" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="R126" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T126" s="5" t="s">
+      <c r="G163" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I163" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="U126" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="V126" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="16:22">
-      <c r="P127" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q127" s="5" t="s">
+      <c r="J163" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="5:34">
+      <c r="E164" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="R127" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="T127" s="5" t="s">
+      <c r="G164" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I164" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U127" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="V127" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="16:22">
-      <c r="P128" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q128" s="5" t="s">
+      <c r="J164" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="5:34">
+      <c r="E165" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="R128" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T128" s="5" t="s">
+      <c r="G165" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I165" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="U128" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="V128" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="16:22">
-      <c r="P129" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q129" s="5" t="s">
+      <c r="J165" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="5:34">
+      <c r="E166" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="5:34">
+      <c r="E167" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="R129" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T129" s="5" t="s">
+      <c r="G167" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I167" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="U129" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="V129" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="130" spans="16:22">
-      <c r="P130" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q130" s="5" t="s">
+      <c r="J167" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="168" spans="5:34">
+      <c r="E168" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F168" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="R130" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T130" s="5" t="s">
+      <c r="G168" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I168" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="U130" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="V130" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="131" spans="16:22">
-      <c r="P131" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q131" s="5" t="s">
+      <c r="J168" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="5:34">
+      <c r="E169" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="R131" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T131" s="5" t="s">
+      <c r="G169" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I169" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="U131" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="V131" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="132" spans="16:22">
-      <c r="P132" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q132" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="R132" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="T132" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U132" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V132" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="133" spans="16:22">
-      <c r="P133" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q133" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="R133" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="T133" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="U133" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V133" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="134" spans="16:22">
-      <c r="P134" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q134" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="R134" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T134" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U134" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V134" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="135" spans="16:22">
-      <c r="P135" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q135" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="R135" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T135" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="U135" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V135" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="136" spans="16:22">
-      <c r="P136" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q136" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="R136" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="T136" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="U136" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V136" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="137" spans="16:22">
-      <c r="P137" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q137" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="R137" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="T137" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U137" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V137" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="16:22">
-      <c r="P138" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q138" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="R138" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="T138" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="U138" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V138" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="139" spans="16:22">
-      <c r="P139" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q139" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="R139" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="T139" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U139" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V139" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="140" spans="16:22">
-      <c r="P140" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q140" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="R140" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="T140" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="U140" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V140" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="141" spans="16:22">
-      <c r="P141" s="5" t="s">
+      <c r="J169" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="Q141" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="R141" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T141" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U141" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V141" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="142" spans="16:22">
-      <c r="P142" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q142" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="R142" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="T142" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="U142" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V142" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="143" spans="16:22">
-      <c r="P143" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q143" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="R143" s="5" t="s">
+      <c r="K169" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="T143" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U143" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V143" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" spans="16:22">
-      <c r="P144" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q144" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="R144" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="T144" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U144" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="V144" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="145" spans="16:22">
-      <c r="P145" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q145" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="R145" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="T145" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="U145" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="V145" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="146" spans="16:22">
-      <c r="P146" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q146" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="R146" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="T146" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U146" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="V146" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="147" spans="16:22">
-      <c r="P147" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q147" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="R147" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="T147" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U147" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="V147" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="16:22">
-      <c r="P148" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q148" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="R148" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T148" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="U148" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="V148" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="16:22">
-      <c r="P149" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q149" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="R149" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T149" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U149" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="V149" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="150" spans="16:22">
-      <c r="P150" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q150" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="R150" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T150" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U150" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="V150" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="151" spans="16:22">
-      <c r="P151" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q151" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="R151" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T151" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="U151" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="V151" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="152" spans="16:22">
-      <c r="P152" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q152" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="R152" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T152" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U152" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="V152" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="153" spans="16:22">
-      <c r="P153" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q153" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="R153" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="T153" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U153" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="V153" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="16:22">
-      <c r="P154" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q154" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="R154" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="T154" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="U154" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="V154" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="16:22">
-      <c r="P155" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q155" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="R155" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="T155" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U155" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="V155" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="16:22">
-      <c r="P156" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q156" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="R156" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="T156" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U156" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="V156" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="16:22">
-      <c r="P157" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q157" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="R157" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="T157" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="U157" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="V157" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="158" spans="16:22">
-      <c r="P158" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q158" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="R158" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="T158" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="U158" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="V158" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="159" spans="16:22">
-      <c r="P159" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q159" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="R159" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T159" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="U159" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="V159" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" spans="16:22">
-      <c r="P160" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q160" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="R160" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="T160" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U160" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="V160" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="161" spans="16:34">
-      <c r="P161" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q161" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R161" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T161" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U161" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="V161" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="162" spans="16:34">
-      <c r="P162" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q162" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R162" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T162" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U162" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V162" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="163" spans="16:34">
-      <c r="P163" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q163" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R163" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="T163" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U163" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V163" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="164" spans="16:34">
-      <c r="P164" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q164" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R164" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T164" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U164" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V164" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="16:34">
-      <c r="P165" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q165" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R165" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T165" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U165" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="V165" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="166" spans="16:34">
-      <c r="P166" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q166" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R166" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="T166" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U166" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="V166" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="167" spans="16:34">
-      <c r="P167" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q167" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R167" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T167" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U167" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="V167" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="168" spans="16:34">
-      <c r="P168" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q168" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R168" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="T168" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U168" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="V168" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="169" spans="16:34">
-      <c r="P169" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q169" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R169" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T169" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U169" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="V169" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="W169" s="8"/>
-      <c r="X169" s="8"/>
-      <c r="Y169" s="8"/>
-      <c r="Z169" s="8"/>
       <c r="AA169" s="8"/>
       <c r="AB169" s="8"/>
       <c r="AC169" s="8"/>
@@ -7353,29 +6913,25 @@
       <c r="AG169" s="8"/>
       <c r="AH169" s="8"/>
     </row>
-    <row r="170" spans="16:34">
-      <c r="P170" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q170" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R170" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T170" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U170" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="V170" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="W170" s="8"/>
-      <c r="X170" s="8"/>
-      <c r="Y170" s="8"/>
-      <c r="Z170" s="8"/>
+    <row r="170" spans="5:34">
+      <c r="E170" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="AA170" s="8"/>
       <c r="AB170" s="8"/>
       <c r="AC170" s="8"/>
@@ -7385,29 +6941,25 @@
       <c r="AG170" s="8"/>
       <c r="AH170" s="8"/>
     </row>
-    <row r="171" spans="16:34">
-      <c r="P171" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q171" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R171" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T171" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U171" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="V171" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="W171" s="8"/>
-      <c r="X171" s="8"/>
-      <c r="Y171" s="8"/>
-      <c r="Z171" s="8"/>
+    <row r="171" spans="5:34">
+      <c r="E171" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="AA171" s="8"/>
       <c r="AB171" s="8"/>
       <c r="AC171" s="8"/>
@@ -7417,29 +6969,25 @@
       <c r="AG171" s="8"/>
       <c r="AH171" s="8"/>
     </row>
-    <row r="172" spans="16:34">
-      <c r="P172" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q172" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R172" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T172" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U172" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="V172" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W172" s="8"/>
-      <c r="X172" s="8"/>
-      <c r="Y172" s="25"/>
-      <c r="Z172" s="25"/>
+    <row r="172" spans="5:34">
+      <c r="E172" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="AA172" s="25"/>
       <c r="AB172" s="25"/>
       <c r="AC172" s="25"/>
@@ -7449,29 +6997,25 @@
       <c r="AG172" s="8"/>
       <c r="AH172" s="8"/>
     </row>
-    <row r="173" spans="16:34">
-      <c r="P173" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q173" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R173" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T173" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U173" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="V173" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="W173" s="8"/>
-      <c r="X173" s="8"/>
-      <c r="Y173" s="8"/>
-      <c r="Z173" s="8"/>
+    <row r="173" spans="5:34">
+      <c r="E173" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J173" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="AA173" s="8"/>
       <c r="AB173" s="8"/>
       <c r="AC173" s="8"/>
@@ -7481,29 +7025,25 @@
       <c r="AG173" s="8"/>
       <c r="AH173" s="8"/>
     </row>
-    <row r="174" spans="16:34">
-      <c r="P174" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q174" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R174" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="T174" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U174" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="V174" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="W174" s="8"/>
-      <c r="X174" s="8"/>
-      <c r="Y174" s="8"/>
-      <c r="Z174" s="8"/>
+    <row r="174" spans="5:34">
+      <c r="E174" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="AA174" s="8"/>
       <c r="AB174" s="8"/>
       <c r="AC174" s="8"/>
@@ -7513,29 +7053,25 @@
       <c r="AG174" s="8"/>
       <c r="AH174" s="8"/>
     </row>
-    <row r="175" spans="16:34">
-      <c r="P175" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q175" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="R175" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T175" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="U175" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="V175" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W175" s="8"/>
-      <c r="X175" s="8"/>
-      <c r="Y175" s="8"/>
-      <c r="Z175" s="8"/>
+    <row r="175" spans="5:34">
+      <c r="E175" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="AA175" s="8"/>
       <c r="AB175" s="8"/>
       <c r="AC175" s="8"/>
@@ -7545,189 +7081,185 @@
       <c r="AG175" s="8"/>
       <c r="AH175" s="8"/>
     </row>
-    <row r="176" spans="16:34">
-      <c r="P176" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q176" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R176" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T176" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U176" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="V176" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="177" spans="16:34">
-      <c r="P177" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q177" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R177" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T177" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U177" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V177" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="178" spans="16:34">
-      <c r="P178" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q178" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R178" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="T178" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U178" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="V178" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="179" spans="16:34">
-      <c r="P179" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q179" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R179" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T179" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U179" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V179" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="16:34">
-      <c r="P180" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q180" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R180" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T180" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U180" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="V180" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="181" spans="16:34">
-      <c r="P181" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q181" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R181" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="T181" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U181" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="V181" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="182" spans="16:34">
-      <c r="P182" s="5" t="s">
+    <row r="176" spans="5:34">
+      <c r="E176" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q182" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R182" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T182" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U182" s="5" t="s">
+      <c r="F176" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J176" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="V182" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="183" spans="16:34">
-      <c r="P183" s="5" t="s">
+      <c r="K176" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="177" spans="5:34">
+      <c r="E177" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J177" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="178" spans="5:34">
+      <c r="E178" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="179" spans="5:34">
+      <c r="E179" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="Q183" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R183" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="T183" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U183" s="5" t="s">
+      <c r="F179" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J179" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="V183" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="184" spans="16:34">
-      <c r="P184" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q184" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R184" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T184" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U184" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="V184" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="W184" s="8"/>
-      <c r="X184" s="8"/>
-      <c r="Y184" s="8"/>
-      <c r="Z184" s="8"/>
+      <c r="K179" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" spans="5:34">
+      <c r="E180" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="5:34">
+      <c r="E181" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J181" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="5:34">
+      <c r="E182" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="183" spans="5:34">
+      <c r="E183" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="184" spans="5:34">
+      <c r="E184" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="AA184" s="8"/>
       <c r="AB184" s="8"/>
       <c r="AC184" s="8"/>
@@ -7737,29 +7269,25 @@
       <c r="AG184" s="8"/>
       <c r="AH184" s="8"/>
     </row>
-    <row r="185" spans="16:34">
-      <c r="P185" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q185" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R185" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T185" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U185" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="V185" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="W185" s="8"/>
-      <c r="X185" s="8"/>
-      <c r="Y185" s="8"/>
-      <c r="Z185" s="8"/>
+    <row r="185" spans="5:34">
+      <c r="E185" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="AA185" s="8"/>
       <c r="AB185" s="8"/>
       <c r="AC185" s="8"/>
@@ -7769,29 +7297,25 @@
       <c r="AG185" s="8"/>
       <c r="AH185" s="8"/>
     </row>
-    <row r="186" spans="16:34">
-      <c r="P186" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q186" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R186" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T186" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U186" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="V186" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="W186" s="8"/>
-      <c r="X186" s="8"/>
-      <c r="Y186" s="8"/>
-      <c r="Z186" s="8"/>
+    <row r="186" spans="5:34">
+      <c r="E186" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AA186" s="8"/>
       <c r="AB186" s="8"/>
       <c r="AC186" s="8"/>
@@ -7801,29 +7325,25 @@
       <c r="AG186" s="8"/>
       <c r="AH186" s="8"/>
     </row>
-    <row r="187" spans="16:34">
-      <c r="P187" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q187" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R187" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T187" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U187" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="V187" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W187" s="8"/>
-      <c r="X187" s="8"/>
-      <c r="Y187" s="25"/>
-      <c r="Z187" s="25"/>
+    <row r="187" spans="5:34">
+      <c r="E187" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J187" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="AA187" s="25"/>
       <c r="AB187" s="25"/>
       <c r="AC187" s="25"/>
@@ -7833,29 +7353,25 @@
       <c r="AG187" s="8"/>
       <c r="AH187" s="8"/>
     </row>
-    <row r="188" spans="16:34">
-      <c r="P188" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q188" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R188" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T188" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U188" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="V188" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="W188" s="8"/>
-      <c r="X188" s="8"/>
-      <c r="Y188" s="8"/>
-      <c r="Z188" s="8"/>
+    <row r="188" spans="5:34">
+      <c r="E188" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AA188" s="8"/>
       <c r="AB188" s="8"/>
       <c r="AC188" s="8"/>
@@ -7865,29 +7381,25 @@
       <c r="AG188" s="8"/>
       <c r="AH188" s="8"/>
     </row>
-    <row r="189" spans="16:34">
-      <c r="P189" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q189" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R189" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="T189" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U189" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="V189" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="W189" s="8"/>
-      <c r="X189" s="8"/>
-      <c r="Y189" s="8"/>
-      <c r="Z189" s="8"/>
+    <row r="189" spans="5:34">
+      <c r="E189" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J189" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K189" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="AA189" s="8"/>
       <c r="AB189" s="8"/>
       <c r="AC189" s="8"/>
@@ -7897,29 +7409,25 @@
       <c r="AG189" s="8"/>
       <c r="AH189" s="8"/>
     </row>
-    <row r="190" spans="16:34">
-      <c r="P190" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q190" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R190" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T190" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U190" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="V190" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W190" s="8"/>
-      <c r="X190" s="8"/>
-      <c r="Y190" s="8"/>
-      <c r="Z190" s="8"/>
+    <row r="190" spans="5:34">
+      <c r="E190" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="AA190" s="8"/>
       <c r="AB190" s="8"/>
       <c r="AC190" s="8"/>
@@ -7929,29 +7437,25 @@
       <c r="AG190" s="8"/>
       <c r="AH190" s="8"/>
     </row>
-    <row r="191" spans="16:34">
-      <c r="P191" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q191" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="R191" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="T191" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="U191" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="V191" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="W191" s="8"/>
-      <c r="X191" s="8"/>
-      <c r="Y191" s="8"/>
-      <c r="Z191" s="8"/>
+    <row r="191" spans="5:34">
+      <c r="E191" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J191" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AA191" s="8"/>
       <c r="AB191" s="8"/>
       <c r="AC191" s="8"/>
@@ -7961,7 +7465,25 @@
       <c r="AG191" s="8"/>
       <c r="AH191" s="8"/>
     </row>
-    <row r="192" spans="16:34">
+    <row r="192" spans="5:34">
+      <c r="E192" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="T192" s="8"/>
       <c r="U192" s="8"/>
       <c r="V192" s="8"/>
@@ -7978,7 +7500,25 @@
       <c r="AG192" s="8"/>
       <c r="AH192" s="8"/>
     </row>
-    <row r="193" spans="20:34">
+    <row r="193" spans="5:34">
+      <c r="E193" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J193" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K193" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="T193" s="8"/>
       <c r="U193" s="8"/>
       <c r="V193" s="8"/>
@@ -7995,7 +7535,25 @@
       <c r="AG193" s="8"/>
       <c r="AH193" s="8"/>
     </row>
-    <row r="194" spans="20:34">
+    <row r="194" spans="5:34">
+      <c r="E194" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="T194" s="8"/>
       <c r="U194" s="8"/>
       <c r="V194" s="8"/>
@@ -8012,7 +7570,29 @@
       <c r="AG194" s="8"/>
       <c r="AH194" s="8"/>
     </row>
-    <row r="195" spans="20:34">
+    <row r="195" spans="5:34">
+      <c r="E195" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J195" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K195" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L195" s="8"/>
+      <c r="M195" s="8"/>
+      <c r="N195" s="8"/>
+      <c r="O195" s="8"/>
       <c r="T195" s="8"/>
       <c r="U195" s="8"/>
       <c r="V195" s="8"/>
@@ -8029,7 +7609,29 @@
       <c r="AG195" s="8"/>
       <c r="AH195" s="8"/>
     </row>
-    <row r="196" spans="20:34">
+    <row r="196" spans="5:34">
+      <c r="E196" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L196" s="8"/>
+      <c r="M196" s="8"/>
+      <c r="N196" s="8"/>
+      <c r="O196" s="8"/>
       <c r="T196" s="8"/>
       <c r="U196" s="8"/>
       <c r="V196" s="8"/>
@@ -8046,7 +7648,29 @@
       <c r="AG196" s="8"/>
       <c r="AH196" s="8"/>
     </row>
-    <row r="197" spans="20:34">
+    <row r="197" spans="5:34">
+      <c r="E197" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J197" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L197" s="8"/>
+      <c r="M197" s="8"/>
+      <c r="N197" s="8"/>
+      <c r="O197" s="8"/>
       <c r="T197" s="8"/>
       <c r="U197" s="8"/>
       <c r="V197" s="8"/>
@@ -8063,7 +7687,29 @@
       <c r="AG197" s="8"/>
       <c r="AH197" s="8"/>
     </row>
-    <row r="198" spans="20:34">
+    <row r="198" spans="5:34">
+      <c r="E198" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L198" s="8"/>
+      <c r="M198" s="8"/>
+      <c r="N198" s="25"/>
+      <c r="O198" s="25"/>
       <c r="T198" s="8"/>
       <c r="U198" s="8"/>
       <c r="V198" s="8"/>
@@ -8080,7 +7726,29 @@
       <c r="AG198" s="8"/>
       <c r="AH198" s="8"/>
     </row>
-    <row r="199" spans="20:34">
+    <row r="199" spans="5:34">
+      <c r="E199" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J199" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L199" s="8"/>
+      <c r="M199" s="8"/>
+      <c r="N199" s="8"/>
+      <c r="O199" s="8"/>
       <c r="T199" s="8"/>
       <c r="U199" s="8"/>
       <c r="V199" s="8"/>
@@ -8097,8 +7765,428 @@
       <c r="AG199" s="8"/>
       <c r="AH199" s="8"/>
     </row>
+    <row r="200" spans="5:34">
+      <c r="E200" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L200" s="8"/>
+      <c r="M200" s="8"/>
+      <c r="N200" s="8"/>
+      <c r="O200" s="8"/>
+    </row>
+    <row r="201" spans="5:34">
+      <c r="E201" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J201" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L201" s="8"/>
+      <c r="M201" s="8"/>
+      <c r="N201" s="8"/>
+      <c r="O201" s="8"/>
+    </row>
+    <row r="202" spans="5:34">
+      <c r="E202" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="203" spans="5:34">
+      <c r="E203" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J203" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K203" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="5:34">
+      <c r="E204" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="5:34">
+      <c r="E205" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="5:34">
+      <c r="E206" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="5:34">
+      <c r="E207" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K207" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="208" spans="5:34">
+      <c r="E208" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="209" spans="5:15">
+      <c r="E209" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J209" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K209" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="210" spans="5:15">
+      <c r="E210" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L210" s="8"/>
+      <c r="M210" s="8"/>
+      <c r="N210" s="8"/>
+      <c r="O210" s="8"/>
+    </row>
+    <row r="211" spans="5:15">
+      <c r="E211" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J211" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K211" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L211" s="8"/>
+      <c r="M211" s="8"/>
+      <c r="N211" s="8"/>
+      <c r="O211" s="8"/>
+    </row>
+    <row r="212" spans="5:15">
+      <c r="E212" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L212" s="8"/>
+      <c r="M212" s="8"/>
+      <c r="N212" s="8"/>
+      <c r="O212" s="8"/>
+    </row>
+    <row r="213" spans="5:15">
+      <c r="E213" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J213" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="K213" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L213" s="8"/>
+      <c r="M213" s="8"/>
+      <c r="N213" s="25"/>
+      <c r="O213" s="25"/>
+    </row>
+    <row r="214" spans="5:15">
+      <c r="E214" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L214" s="8"/>
+      <c r="M214" s="8"/>
+      <c r="N214" s="8"/>
+      <c r="O214" s="8"/>
+    </row>
+    <row r="215" spans="5:15">
+      <c r="E215" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K215" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L215" s="8"/>
+      <c r="M215" s="8"/>
+      <c r="N215" s="8"/>
+      <c r="O215" s="8"/>
+    </row>
+    <row r="216" spans="5:15">
+      <c r="E216" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="L216" s="8"/>
+      <c r="M216" s="8"/>
+      <c r="N216" s="8"/>
+      <c r="O216" s="8"/>
+    </row>
+    <row r="217" spans="5:15">
+      <c r="E217" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="J217" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="K217" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="L217" s="8"/>
+      <c r="M217" s="8"/>
+      <c r="N217" s="8"/>
+      <c r="O217" s="8"/>
+    </row>
+    <row r="218" spans="5:15">
+      <c r="E218" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="P34:V197" xr:uid="{2029C618-1C44-4119-867B-3BC68F58B623}"/>
+  <autoFilter ref="E60:K218" xr:uid="{1C5012B1-D9B8-422C-80BD-DF6F215485B3}"/>
   <mergeCells count="7">
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="D16:D20"/>

--- a/doc/tsv作成用excel.xlsx
+++ b/doc/tsv作成用excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwzn\MEGA\github\suzaku-layout\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9414FA36-18FF-4D80-B214-5D8C8356B362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A38051-0213-4400-8303-0C613C335235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8CA9E21-F10B-4B5A-9DDD-4AC911E7DA08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8CA9E21-F10B-4B5A-9DDD-4AC911E7DA08}"/>
   </bookViews>
   <sheets>
     <sheet name="朱雀配列" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">朱雀配列!$E$60:$K$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">朱雀配列!$E$64:$K$221</definedName>
   </definedNames>
   <calcPr calcId="191028" refMode="R1C1"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="414">
   <si>
     <t>ヴぁ</t>
   </si>
@@ -1099,31 +1099,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>ちぃ</t>
-  </si>
-  <si>
     <t>きゅ</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>〜</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>「</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>」</t>
   </si>
   <si>
     <t>元の配列</t>
@@ -1440,7 +1416,56 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2021/01/04 14:01 pythonでの評価を元に割当変更</t>
+    <t>ふゅ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴぇ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴぉ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴぁ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヴぃ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぁぃぅぇぉゃゅょのみは、二度おしにする。</t>
+    <rPh sb="12" eb="14">
+      <t>ニド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a, y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>w, f</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v,  小文字母音</t>
+    <rPh sb="4" eb="7">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ボイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2021/01/23 16:30 pythonでの評価を元に割当変更</t>
     <rPh sb="25" eb="27">
       <t>ヒョウカ</t>
     </rPh>
@@ -1453,163 +1478,6 @@
     <rPh sb="32" eb="34">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>u</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ふぇ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ふゅ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ヴ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ヴぇ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ヴぉ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ヴぁ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ヴぃ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぁぃぅぇぉゃゅょのみは、二度おしにする。</t>
-    <rPh sb="12" eb="14">
-      <t>ニド</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぁ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぃ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぅ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぇ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぉ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>l</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>a, y</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>w, f</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>v,  小文字母音</t>
-    <rPh sb="4" eb="7">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ボイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぁ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぃ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぅ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぉ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぇ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2605,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1D7A9-452B-494C-9C2F-095942377D87}">
-  <dimension ref="B2:AL218"/>
+  <dimension ref="B2:AL220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC59" sqref="AC59"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64:S295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -2700,7 +2568,7 @@
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
       <c r="F5" s="26" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>14</v>
@@ -3093,19 +2961,19 @@
       <c r="I10" s="23"/>
       <c r="J10" s="7"/>
       <c r="K10" s="23" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
@@ -3430,7 +3298,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>121</v>
@@ -3777,7 +3645,7 @@
         <v>160</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>161</v>
@@ -3962,19 +3830,19 @@
     </row>
     <row r="27" spans="3:38">
       <c r="C27" s="5" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>174</v>
@@ -4478,7 +4346,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="4:15">
+    <row r="49" spans="4:14">
       <c r="E49" t="s">
         <v>266</v>
       </c>
@@ -4510,7 +4378,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="4:15">
+    <row r="50" spans="4:14">
       <c r="E50" t="s">
         <v>275</v>
       </c>
@@ -4542,14 +4410,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="52" spans="4:15">
+    <row r="52" spans="4:14">
       <c r="D52" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="53" spans="4:15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14">
       <c r="E53" s="12" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>229</v>
@@ -4575,9 +4443,9 @@
       </c>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="4:15">
+    <row r="54" spans="4:14">
       <c r="E54" s="11" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>225</v>
@@ -4607,9 +4475,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="4:15">
+    <row r="55" spans="4:14">
       <c r="E55" s="11" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>217</v>
@@ -4639,2383 +4507,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="4:15">
+    <row r="56" spans="4:14">
       <c r="E56" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="61" spans="4:15">
-      <c r="E61" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="62" spans="4:15">
-      <c r="E62" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="63" spans="4:15">
-      <c r="E63" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="64" spans="4:15">
-      <c r="E64" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="65" spans="5:15">
-      <c r="E65" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="5:15">
-      <c r="E66" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M66" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="5:15">
-      <c r="E67" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="68" spans="5:15">
-      <c r="E68" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" spans="5:15">
-      <c r="E69" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="O69" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="5:15">
-      <c r="E70" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="O70" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="5:15">
-      <c r="E71" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" spans="5:15">
-      <c r="E72" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="5:15">
-      <c r="E73" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="5:15">
-      <c r="E74" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="5:15">
-      <c r="E75" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="5:15">
-      <c r="E76" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="5:15">
-      <c r="E77" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="5:15">
-      <c r="E78" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="5:15">
-      <c r="E79" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="5:15">
-      <c r="E80" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="5:11">
-      <c r="E81" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="5:11">
-      <c r="E82" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="5:11">
-      <c r="E83" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="5:11">
-      <c r="E84" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="5:11">
-      <c r="E85" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="5:11">
-      <c r="E86" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="5:11">
-      <c r="E87" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="5:11">
-      <c r="E88" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" spans="5:11">
-      <c r="E89" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="5:11">
-      <c r="E90" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="5:11">
-      <c r="E91" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="5:11">
-      <c r="E92" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="5:11">
-      <c r="E93" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="5:11">
-      <c r="E94" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="5:11">
-      <c r="E95" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="5:11">
-      <c r="E96" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="5:11">
-      <c r="E97" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="5:11">
-      <c r="E98" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="5:11">
-      <c r="E99" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="5:11">
-      <c r="E100" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="5:11">
-      <c r="E101" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="5:11">
-      <c r="E102" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="5:11">
-      <c r="E103" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="5:11">
-      <c r="E104" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="5:11">
-      <c r="E105" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="5:11">
-      <c r="E106" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K106" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="5:11">
-      <c r="E107" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="5:11">
-      <c r="E108" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="109" spans="5:11">
-      <c r="E109" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="5:11">
-      <c r="E110" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K110" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="5:11">
-      <c r="E111" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="5:11">
-      <c r="E112" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K112" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="113" spans="5:11">
-      <c r="E113" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J113" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K113" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="5:11">
-      <c r="E114" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="5:11">
-      <c r="E115" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K115" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="5:11">
-      <c r="E116" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K116" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="5:11">
-      <c r="E117" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K117" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="5:11">
-      <c r="E118" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="5:11">
-      <c r="E119" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="5:11">
-      <c r="E120" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="5:11">
-      <c r="E121" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="5:11">
-      <c r="E122" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K122" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="5:11">
-      <c r="E123" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K123" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="5:11">
-      <c r="E124" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="5:11">
-      <c r="E125" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="5:11">
-      <c r="E126" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K126" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="5:11">
-      <c r="E127" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K127" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="128" spans="5:11">
-      <c r="E128" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="5:11">
-      <c r="E129" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K129" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="5:11">
-      <c r="E130" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K130" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="5:11">
-      <c r="E131" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="5:11">
-      <c r="E132" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="5:11">
-      <c r="E133" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J133" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K133" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="5:11">
-      <c r="E134" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J134" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K134" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="135" spans="5:11">
-      <c r="E135" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K135" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="136" spans="5:11">
-      <c r="E136" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K136" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="137" spans="5:11">
-      <c r="E137" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K137" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="138" spans="5:11">
-      <c r="E138" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="J138" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K138" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="139" spans="5:11">
-      <c r="E139" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="140" spans="5:11">
-      <c r="E140" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J140" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K140" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="141" spans="5:11">
-      <c r="E141" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J141" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K141" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="142" spans="5:11">
-      <c r="E142" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J142" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K142" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143" spans="5:11">
-      <c r="E143" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K143" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="5:11">
-      <c r="E144" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K144" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" spans="5:11">
-      <c r="E145" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K145" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="5:11">
-      <c r="E146" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J146" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K146" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="147" spans="5:11">
-      <c r="E147" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I147" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J147" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K147" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="148" spans="5:11">
-      <c r="E148" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I148" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J148" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K148" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="5:11">
-      <c r="E149" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I149" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J149" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K149" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="150" spans="5:11">
-      <c r="E150" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J150" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K150" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="151" spans="5:11">
-      <c r="E151" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I151" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J151" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K151" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="5:11">
-      <c r="E152" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J152" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K152" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="153" spans="5:11">
-      <c r="E153" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="154" spans="5:11">
-      <c r="E154" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I154" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J154" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="155" spans="5:11">
-      <c r="E155" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I155" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J155" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K155" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="156" spans="5:11">
-      <c r="E156" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J156" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K156" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="157" spans="5:11">
-      <c r="E157" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I157" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J157" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K157" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="158" spans="5:11">
-      <c r="E158" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I158" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J158" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K158" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="159" spans="5:11">
-      <c r="E159" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I159" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J159" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="160" spans="5:11">
-      <c r="E160" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I160" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J160" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="161" spans="5:34">
-      <c r="E161" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I161" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J161" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K161" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="162" spans="5:34">
-      <c r="E162" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J162" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K162" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="163" spans="5:34">
-      <c r="E163" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K163" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="164" spans="5:34">
-      <c r="E164" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I164" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K164" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" spans="5:34">
-      <c r="E165" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K165" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="166" spans="5:34">
-      <c r="E166" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J166" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K166" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="167" spans="5:34">
-      <c r="E167" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J167" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K167" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="168" spans="5:34">
-      <c r="E168" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J168" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K168" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="169" spans="5:34">
-      <c r="E169" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J169" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K169" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA169" s="8"/>
-      <c r="AB169" s="8"/>
-      <c r="AC169" s="8"/>
-      <c r="AD169" s="8"/>
-      <c r="AE169" s="8"/>
-      <c r="AF169" s="8"/>
-      <c r="AG169" s="8"/>
-      <c r="AH169" s="8"/>
-    </row>
-    <row r="170" spans="5:34">
-      <c r="E170" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I170" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K170" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA170" s="8"/>
-      <c r="AB170" s="8"/>
-      <c r="AC170" s="8"/>
-      <c r="AD170" s="8"/>
-      <c r="AE170" s="8"/>
-      <c r="AF170" s="8"/>
-      <c r="AG170" s="8"/>
-      <c r="AH170" s="8"/>
-    </row>
-    <row r="171" spans="5:34">
-      <c r="E171" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I171" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J171" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K171" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA171" s="8"/>
-      <c r="AB171" s="8"/>
-      <c r="AC171" s="8"/>
-      <c r="AD171" s="8"/>
-      <c r="AE171" s="8"/>
-      <c r="AF171" s="8"/>
-      <c r="AG171" s="8"/>
-      <c r="AH171" s="8"/>
-    </row>
-    <row r="172" spans="5:34">
-      <c r="E172" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I172" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J172" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K172" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA172" s="25"/>
-      <c r="AB172" s="25"/>
-      <c r="AC172" s="25"/>
-      <c r="AD172" s="8"/>
-      <c r="AE172" s="8"/>
-      <c r="AF172" s="8"/>
-      <c r="AG172" s="8"/>
-      <c r="AH172" s="8"/>
-    </row>
-    <row r="173" spans="5:34">
-      <c r="E173" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I173" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J173" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K173" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="13:13">
+      <c r="M70" s="24"/>
+    </row>
+    <row r="173" spans="27:34">
       <c r="AA173" s="8"/>
       <c r="AB173" s="8"/>
       <c r="AC173" s="8"/>
@@ -7025,25 +4525,7 @@
       <c r="AG173" s="8"/>
       <c r="AH173" s="8"/>
     </row>
-    <row r="174" spans="5:34">
-      <c r="E174" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I174" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J174" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K174" s="5" t="s">
-        <v>142</v>
-      </c>
+    <row r="174" spans="27:34">
       <c r="AA174" s="8"/>
       <c r="AB174" s="8"/>
       <c r="AC174" s="8"/>
@@ -7053,25 +4535,7 @@
       <c r="AG174" s="8"/>
       <c r="AH174" s="8"/>
     </row>
-    <row r="175" spans="5:34">
-      <c r="E175" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G175" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I175" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J175" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K175" s="5" t="s">
-        <v>143</v>
-      </c>
+    <row r="175" spans="27:34">
       <c r="AA175" s="8"/>
       <c r="AB175" s="8"/>
       <c r="AC175" s="8"/>
@@ -7081,297 +4545,47 @@
       <c r="AG175" s="8"/>
       <c r="AH175" s="8"/>
     </row>
-    <row r="176" spans="5:34">
-      <c r="E176" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G176" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I176" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J176" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K176" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="177" spans="5:34">
-      <c r="E177" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I177" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J177" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="178" spans="5:34">
-      <c r="E178" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I178" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J178" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="179" spans="5:34">
-      <c r="E179" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I179" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J179" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K179" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="180" spans="5:34">
-      <c r="E180" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I180" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J180" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="5:34">
-      <c r="E181" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J181" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K181" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="182" spans="5:34">
-      <c r="E182" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I182" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J182" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K182" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="183" spans="5:34">
-      <c r="E183" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I183" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J183" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K183" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="184" spans="5:34">
-      <c r="E184" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="I184" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J184" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K184" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA184" s="8"/>
-      <c r="AB184" s="8"/>
-      <c r="AC184" s="8"/>
-      <c r="AD184" s="8"/>
-      <c r="AE184" s="8"/>
-      <c r="AF184" s="8"/>
-      <c r="AG184" s="8"/>
-      <c r="AH184" s="8"/>
-    </row>
-    <row r="185" spans="5:34">
-      <c r="E185" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I185" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J185" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K185" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA185" s="8"/>
-      <c r="AB185" s="8"/>
-      <c r="AC185" s="8"/>
-      <c r="AD185" s="8"/>
-      <c r="AE185" s="8"/>
-      <c r="AF185" s="8"/>
-      <c r="AG185" s="8"/>
-      <c r="AH185" s="8"/>
-    </row>
-    <row r="186" spans="5:34">
-      <c r="E186" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I186" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J186" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K186" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA186" s="8"/>
-      <c r="AB186" s="8"/>
-      <c r="AC186" s="8"/>
-      <c r="AD186" s="8"/>
-      <c r="AE186" s="8"/>
-      <c r="AF186" s="8"/>
-      <c r="AG186" s="8"/>
-      <c r="AH186" s="8"/>
-    </row>
-    <row r="187" spans="5:34">
-      <c r="E187" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I187" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J187" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K187" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA187" s="25"/>
-      <c r="AB187" s="25"/>
-      <c r="AC187" s="25"/>
-      <c r="AD187" s="8"/>
-      <c r="AE187" s="8"/>
-      <c r="AF187" s="8"/>
-      <c r="AG187" s="8"/>
-      <c r="AH187" s="8"/>
-    </row>
-    <row r="188" spans="5:34">
-      <c r="E188" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I188" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J188" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K188" s="5" t="s">
-        <v>116</v>
-      </c>
+    <row r="176" spans="27:34">
+      <c r="AA176" s="25"/>
+      <c r="AB176" s="25"/>
+      <c r="AC176" s="25"/>
+      <c r="AD176" s="8"/>
+      <c r="AE176" s="8"/>
+      <c r="AF176" s="8"/>
+      <c r="AG176" s="8"/>
+      <c r="AH176" s="8"/>
+    </row>
+    <row r="177" spans="27:34">
+      <c r="AA177" s="8"/>
+      <c r="AB177" s="8"/>
+      <c r="AC177" s="8"/>
+      <c r="AD177" s="8"/>
+      <c r="AE177" s="8"/>
+      <c r="AF177" s="8"/>
+      <c r="AG177" s="8"/>
+      <c r="AH177" s="8"/>
+    </row>
+    <row r="178" spans="27:34">
+      <c r="AA178" s="8"/>
+      <c r="AB178" s="8"/>
+      <c r="AC178" s="8"/>
+      <c r="AD178" s="8"/>
+      <c r="AE178" s="8"/>
+      <c r="AF178" s="8"/>
+      <c r="AG178" s="8"/>
+      <c r="AH178" s="8"/>
+    </row>
+    <row r="179" spans="27:34">
+      <c r="AA179" s="8"/>
+      <c r="AB179" s="8"/>
+      <c r="AC179" s="8"/>
+      <c r="AD179" s="8"/>
+      <c r="AE179" s="8"/>
+      <c r="AF179" s="8"/>
+      <c r="AG179" s="8"/>
+      <c r="AH179" s="8"/>
+    </row>
+    <row r="188" spans="27:34">
       <c r="AA188" s="8"/>
       <c r="AB188" s="8"/>
       <c r="AC188" s="8"/>
@@ -7381,25 +4595,7 @@
       <c r="AG188" s="8"/>
       <c r="AH188" s="8"/>
     </row>
-    <row r="189" spans="5:34">
-      <c r="E189" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J189" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K189" s="5" t="s">
-        <v>109</v>
-      </c>
+    <row r="189" spans="27:34">
       <c r="AA189" s="8"/>
       <c r="AB189" s="8"/>
       <c r="AC189" s="8"/>
@@ -7409,53 +4605,17 @@
       <c r="AG189" s="8"/>
       <c r="AH189" s="8"/>
     </row>
-    <row r="190" spans="5:34">
-      <c r="E190" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I190" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J190" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K190" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA190" s="8"/>
-      <c r="AB190" s="8"/>
-      <c r="AC190" s="8"/>
+    <row r="190" spans="27:34">
+      <c r="AA190" s="25"/>
+      <c r="AB190" s="25"/>
+      <c r="AC190" s="25"/>
       <c r="AD190" s="8"/>
       <c r="AE190" s="8"/>
       <c r="AF190" s="8"/>
       <c r="AG190" s="8"/>
       <c r="AH190" s="8"/>
     </row>
-    <row r="191" spans="5:34">
-      <c r="E191" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I191" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J191" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K191" s="5" t="s">
-        <v>90</v>
-      </c>
+    <row r="191" spans="27:34">
       <c r="AA191" s="8"/>
       <c r="AB191" s="8"/>
       <c r="AC191" s="8"/>
@@ -7465,32 +4625,7 @@
       <c r="AG191" s="8"/>
       <c r="AH191" s="8"/>
     </row>
-    <row r="192" spans="5:34">
-      <c r="E192" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I192" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J192" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K192" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="T192" s="8"/>
-      <c r="U192" s="8"/>
-      <c r="V192" s="8"/>
-      <c r="W192" s="8"/>
-      <c r="X192" s="8"/>
-      <c r="Y192" s="8"/>
-      <c r="Z192" s="8"/>
+    <row r="192" spans="27:34">
       <c r="AA192" s="8"/>
       <c r="AB192" s="8"/>
       <c r="AC192" s="8"/>
@@ -7500,32 +4635,7 @@
       <c r="AG192" s="8"/>
       <c r="AH192" s="8"/>
     </row>
-    <row r="193" spans="5:34">
-      <c r="E193" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I193" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J193" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K193" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T193" s="8"/>
-      <c r="U193" s="8"/>
-      <c r="V193" s="8"/>
-      <c r="W193" s="8"/>
-      <c r="X193" s="8"/>
-      <c r="Y193" s="8"/>
-      <c r="Z193" s="8"/>
+    <row r="193" spans="12:34">
       <c r="AA193" s="8"/>
       <c r="AB193" s="8"/>
       <c r="AC193" s="8"/>
@@ -7535,32 +4645,7 @@
       <c r="AG193" s="8"/>
       <c r="AH193" s="8"/>
     </row>
-    <row r="194" spans="5:34">
-      <c r="E194" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I194" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J194" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K194" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="T194" s="8"/>
-      <c r="U194" s="8"/>
-      <c r="V194" s="8"/>
-      <c r="W194" s="8"/>
-      <c r="X194" s="8"/>
-      <c r="Y194" s="8"/>
-      <c r="Z194" s="8"/>
+    <row r="194" spans="12:34">
       <c r="AA194" s="8"/>
       <c r="AB194" s="8"/>
       <c r="AC194" s="8"/>
@@ -7570,29 +4655,7 @@
       <c r="AG194" s="8"/>
       <c r="AH194" s="8"/>
     </row>
-    <row r="195" spans="5:34">
-      <c r="E195" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I195" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J195" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K195" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L195" s="8"/>
-      <c r="M195" s="8"/>
-      <c r="N195" s="8"/>
-      <c r="O195" s="8"/>
+    <row r="195" spans="12:34">
       <c r="T195" s="8"/>
       <c r="U195" s="8"/>
       <c r="V195" s="8"/>
@@ -7609,29 +4672,7 @@
       <c r="AG195" s="8"/>
       <c r="AH195" s="8"/>
     </row>
-    <row r="196" spans="5:34">
-      <c r="E196" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I196" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J196" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K196" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="8"/>
-      <c r="O196" s="8"/>
+    <row r="196" spans="12:34">
       <c r="T196" s="8"/>
       <c r="U196" s="8"/>
       <c r="V196" s="8"/>
@@ -7648,29 +4689,7 @@
       <c r="AG196" s="8"/>
       <c r="AH196" s="8"/>
     </row>
-    <row r="197" spans="5:34">
-      <c r="E197" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I197" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J197" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K197" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L197" s="8"/>
-      <c r="M197" s="8"/>
-      <c r="N197" s="8"/>
-      <c r="O197" s="8"/>
+    <row r="197" spans="12:34">
       <c r="T197" s="8"/>
       <c r="U197" s="8"/>
       <c r="V197" s="8"/>
@@ -7687,29 +4706,11 @@
       <c r="AG197" s="8"/>
       <c r="AH197" s="8"/>
     </row>
-    <row r="198" spans="5:34">
-      <c r="E198" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I198" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J198" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K198" s="5" t="s">
-        <v>23</v>
-      </c>
+    <row r="198" spans="12:34">
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>
-      <c r="N198" s="25"/>
-      <c r="O198" s="25"/>
+      <c r="N198" s="8"/>
+      <c r="O198" s="8"/>
       <c r="T198" s="8"/>
       <c r="U198" s="8"/>
       <c r="V198" s="8"/>
@@ -7726,25 +4727,7 @@
       <c r="AG198" s="8"/>
       <c r="AH198" s="8"/>
     </row>
-    <row r="199" spans="5:34">
-      <c r="E199" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I199" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K199" s="5" t="s">
-        <v>128</v>
-      </c>
+    <row r="199" spans="12:34">
       <c r="L199" s="8"/>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
@@ -7765,428 +4748,133 @@
       <c r="AG199" s="8"/>
       <c r="AH199" s="8"/>
     </row>
-    <row r="200" spans="5:34">
-      <c r="E200" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I200" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J200" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K200" s="5" t="s">
-        <v>164</v>
-      </c>
+    <row r="200" spans="12:34">
       <c r="L200" s="8"/>
       <c r="M200" s="8"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
-    </row>
-    <row r="201" spans="5:34">
-      <c r="E201" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="I201" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J201" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K201" s="5" t="s">
-        <v>446</v>
-      </c>
+      <c r="T200" s="8"/>
+      <c r="U200" s="8"/>
+      <c r="V200" s="8"/>
+      <c r="W200" s="8"/>
+      <c r="X200" s="8"/>
+      <c r="Y200" s="8"/>
+      <c r="Z200" s="8"/>
+      <c r="AA200" s="8"/>
+      <c r="AB200" s="8"/>
+      <c r="AC200" s="8"/>
+      <c r="AD200" s="8"/>
+      <c r="AE200" s="8"/>
+      <c r="AF200" s="8"/>
+      <c r="AG200" s="8"/>
+      <c r="AH200" s="8"/>
+    </row>
+    <row r="201" spans="12:34">
       <c r="L201" s="8"/>
       <c r="M201" s="8"/>
-      <c r="N201" s="8"/>
-      <c r="O201" s="8"/>
-    </row>
-    <row r="202" spans="5:34">
-      <c r="E202" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I202" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J202" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K202" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="203" spans="5:34">
-      <c r="E203" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I203" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J203" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K203" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="204" spans="5:34">
-      <c r="E204" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I204" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J204" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K204" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="205" spans="5:34">
-      <c r="E205" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I205" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J205" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K205" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="206" spans="5:34">
-      <c r="E206" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I206" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J206" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K206" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="207" spans="5:34">
-      <c r="E207" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I207" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J207" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K207" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="208" spans="5:34">
-      <c r="E208" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I208" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J208" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K208" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="209" spans="5:15">
-      <c r="E209" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J209" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K209" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="210" spans="5:15">
-      <c r="E210" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F210" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I210" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J210" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K210" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L210" s="8"/>
-      <c r="M210" s="8"/>
-      <c r="N210" s="8"/>
-      <c r="O210" s="8"/>
-    </row>
-    <row r="211" spans="5:15">
-      <c r="E211" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I211" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J211" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K211" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L211" s="8"/>
-      <c r="M211" s="8"/>
-      <c r="N211" s="8"/>
-      <c r="O211" s="8"/>
-    </row>
-    <row r="212" spans="5:15">
-      <c r="E212" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I212" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J212" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K212" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L212" s="8"/>
-      <c r="M212" s="8"/>
-      <c r="N212" s="8"/>
-      <c r="O212" s="8"/>
-    </row>
-    <row r="213" spans="5:15">
-      <c r="E213" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I213" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J213" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K213" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N201" s="25"/>
+      <c r="O201" s="25"/>
+      <c r="T201" s="8"/>
+      <c r="U201" s="8"/>
+      <c r="V201" s="8"/>
+      <c r="W201" s="8"/>
+      <c r="X201" s="8"/>
+      <c r="Y201" s="8"/>
+      <c r="Z201" s="8"/>
+      <c r="AA201" s="8"/>
+      <c r="AB201" s="8"/>
+      <c r="AC201" s="8"/>
+      <c r="AD201" s="8"/>
+      <c r="AE201" s="8"/>
+      <c r="AF201" s="8"/>
+      <c r="AG201" s="8"/>
+      <c r="AH201" s="8"/>
+    </row>
+    <row r="202" spans="12:34">
+      <c r="L202" s="8"/>
+      <c r="M202" s="8"/>
+      <c r="N202" s="8"/>
+      <c r="O202" s="8"/>
+      <c r="T202" s="8"/>
+      <c r="U202" s="8"/>
+      <c r="V202" s="8"/>
+      <c r="W202" s="8"/>
+      <c r="X202" s="8"/>
+      <c r="Y202" s="8"/>
+      <c r="Z202" s="8"/>
+      <c r="AA202" s="8"/>
+      <c r="AB202" s="8"/>
+      <c r="AC202" s="8"/>
+      <c r="AD202" s="8"/>
+      <c r="AE202" s="8"/>
+      <c r="AF202" s="8"/>
+      <c r="AG202" s="8"/>
+      <c r="AH202" s="8"/>
+    </row>
+    <row r="203" spans="12:34">
+      <c r="L203" s="8"/>
+      <c r="M203" s="8"/>
+      <c r="N203" s="8"/>
+      <c r="O203" s="8"/>
+    </row>
+    <row r="204" spans="12:34">
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
+      <c r="N204" s="8"/>
+      <c r="O204" s="8"/>
+    </row>
+    <row r="213" spans="9:15">
       <c r="L213" s="8"/>
       <c r="M213" s="8"/>
-      <c r="N213" s="25"/>
-      <c r="O213" s="25"/>
-    </row>
-    <row r="214" spans="5:15">
-      <c r="E214" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I214" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J214" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K214" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="N213" s="8"/>
+      <c r="O213" s="8"/>
+    </row>
+    <row r="214" spans="9:15">
       <c r="L214" s="8"/>
       <c r="M214" s="8"/>
       <c r="N214" s="8"/>
       <c r="O214" s="8"/>
     </row>
-    <row r="215" spans="5:15">
-      <c r="E215" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I215" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J215" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K215" s="5" t="s">
-        <v>164</v>
-      </c>
+    <row r="215" spans="9:15">
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
       <c r="N215" s="8"/>
       <c r="O215" s="8"/>
     </row>
-    <row r="216" spans="5:15">
-      <c r="E216" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G216" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="I216" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J216" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K216" s="5" t="s">
-        <v>426</v>
-      </c>
+    <row r="216" spans="9:15">
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
-      <c r="N216" s="8"/>
-      <c r="O216" s="8"/>
-    </row>
-    <row r="217" spans="5:15">
-      <c r="E217" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="I217" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="J217" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="K217" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="N216" s="25"/>
+      <c r="O216" s="25"/>
+    </row>
+    <row r="217" spans="9:15">
       <c r="L217" s="8"/>
       <c r="M217" s="8"/>
       <c r="N217" s="8"/>
       <c r="O217" s="8"/>
     </row>
-    <row r="218" spans="5:15">
-      <c r="E218" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="I218" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="J218" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K218" s="5" t="s">
-        <v>426</v>
-      </c>
+    <row r="218" spans="9:15">
+      <c r="L218" s="8"/>
+      <c r="M218" s="8"/>
+      <c r="N218" s="8"/>
+      <c r="O218" s="8"/>
+    </row>
+    <row r="219" spans="9:15">
+      <c r="L219" s="8"/>
+      <c r="M219" s="8"/>
+      <c r="N219" s="8"/>
+      <c r="O219" s="8"/>
+    </row>
+    <row r="220" spans="9:15">
+      <c r="I220" s="8"/>
+      <c r="J220" s="8"/>
+      <c r="K220" s="8"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="8"/>
+      <c r="N220" s="8"/>
+      <c r="O220" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="E60:K218" xr:uid="{1C5012B1-D9B8-422C-80BD-DF6F215485B3}"/>
   <mergeCells count="7">
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="D16:D20"/>
@@ -9366,7 +6054,7 @@
         <v>290</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="24" hidden="1">
@@ -9592,7 +6280,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" thickBot="1">
       <c r="B1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="22.5" customHeight="1">
@@ -9778,7 +6466,7 @@
         <v>145</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>168</v>
@@ -9790,7 +6478,7 @@
         <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="22.5">
@@ -9972,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>167</v>
@@ -9981,12 +6669,12 @@
         <v>166</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
@@ -10093,22 +6781,22 @@
     <row r="23" spans="4:13" ht="18.75" customHeight="1"/>
     <row r="25" spans="4:13" ht="18.75" customHeight="1">
       <c r="D25" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s">
         <v>271</v>
       </c>
       <c r="H25" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
@@ -10179,12 +6867,12 @@
   <sheetData>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C5">
         <v>8763.5898875000094</v>
@@ -10192,26 +6880,26 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C8">
         <v>8531.7208441000093</v>
@@ -10219,26 +6907,26 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C11">
         <v>8761.71895269999</v>
@@ -10246,26 +6934,26 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C14">
         <v>8530.5420641000092</v>
@@ -10273,26 +6961,26 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" t="s">
         <v>334</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>335</v>
-      </c>
-      <c r="D15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C17">
         <v>8722.6852681000091</v>
@@ -10300,26 +6988,26 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C18" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D18" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="2:5" s="36" customFormat="1">
       <c r="B20" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C20" s="36">
         <v>8506.5477905000007</v>
@@ -10327,26 +7015,26 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D21" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E21" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C23">
         <v>8717.8910263000198</v>
@@ -10354,26 +7042,26 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="2:5" s="36" customFormat="1">
       <c r="B26" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C26" s="36">
         <v>8503.5852906000091</v>
@@ -10381,26 +7069,26 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E27" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C29">
         <v>8715.5855396999905</v>
@@ -10408,26 +7096,26 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E30" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="2:5" s="36" customFormat="1">
       <c r="B32" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C32" s="36">
         <v>8503.8857724999907</v>
@@ -10435,26 +7123,26 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E33" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C35">
         <v>8712.7231347000197</v>
@@ -10462,26 +7150,26 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D36" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="2:5" s="36" customFormat="1">
       <c r="B38" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C38" s="36">
         <v>8502.0417730000099</v>
@@ -10489,26 +7177,26 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E39" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C45">
         <v>8979.4153279999991</v>
@@ -10516,26 +7204,26 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D46" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E46" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C48">
         <v>8750.0027015999694</v>
@@ -10543,26 +7231,26 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C49" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E49" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C51">
         <v>8977.6944970000095</v>
@@ -10570,26 +7258,26 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C52" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D52" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E52" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C54">
         <v>8748.9238905999791</v>
@@ -10597,26 +7285,26 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D55" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E55" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C57">
         <v>8942.3969902999997</v>
@@ -10624,26 +7312,26 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D58" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="2:5" s="36" customFormat="1">
       <c r="B60" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C60" s="36">
         <v>8727.6618714999495</v>
@@ -10651,26 +7339,26 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C61" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D61" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E61" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C63">
         <v>8937.8843518000103</v>
@@ -10678,26 +7366,26 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C64" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D64" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E64" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="2:5" s="36" customFormat="1">
       <c r="B66" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C66" s="36">
         <v>8724.8254268999808</v>
@@ -10705,26 +7393,26 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C67" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E67" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C69">
         <v>8936.1677328999795</v>
@@ -10732,26 +7420,26 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C70" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E70" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="2:5" s="36" customFormat="1">
       <c r="B72" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C72" s="36">
         <v>8724.7413116999596</v>
@@ -10759,26 +7447,26 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C73" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E73" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C75">
         <v>8933.4517898999893</v>
@@ -10786,26 +7474,26 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D76" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E76" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="2:5" s="36" customFormat="1">
       <c r="B78" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C78" s="36">
         <v>8722.9969656999601</v>
@@ -10813,26 +7501,26 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C79" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D79" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E79" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C83">
         <v>8847.5661844000006</v>
@@ -10840,26 +7528,26 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D84" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E84" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C86">
         <v>8630.4481985000002</v>
@@ -10867,26 +7555,26 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C87" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D87" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E87" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C89">
         <v>8845.7642477000009</v>
@@ -10894,26 +7582,26 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C90" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D90" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C92">
         <v>8629.3170469000106</v>
@@ -10921,26 +7609,26 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C93" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D93" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E93" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="2:5" s="37" customFormat="1">
       <c r="B95" s="37" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C95" s="37">
         <v>8811.74991770001</v>
@@ -10948,26 +7636,26 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C96" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D96" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E96" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="2:5" s="36" customFormat="1">
       <c r="B98" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C98" s="36">
         <v>8610.4143147999894</v>
@@ -10975,26 +7663,26 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C99" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D99" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E99" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="2:5">
       <c r="B100" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="2:5" s="37" customFormat="1">
       <c r="B101" s="37" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C101" s="37">
         <v>8807.3133718000099</v>
@@ -11002,26 +7690,26 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C102" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E102" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="2:5" s="36" customFormat="1">
       <c r="B104" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C104" s="36">
         <v>8607.7778622000005</v>
@@ -11029,26 +7717,26 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D105" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E105" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="2:5">
       <c r="B106" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="2:5" s="37" customFormat="1">
       <c r="B107" s="37" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C107" s="37">
         <v>8803.4640607000092</v>
@@ -11056,26 +7744,26 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D108" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="2:5">
       <c r="B109" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="2:5" s="36" customFormat="1">
       <c r="B110" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C110" s="36">
         <v>8605.6946834999799</v>
@@ -11083,26 +7771,26 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D111" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E111" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="2:5">
       <c r="B112" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="2:5" s="37" customFormat="1">
       <c r="B113" s="37" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C113" s="37">
         <v>8800.8943270000309</v>
@@ -11110,26 +7798,26 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D114" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E114" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="2:5" s="36" customFormat="1">
       <c r="B116" s="36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C116" s="36">
         <v>8604.1532417000108</v>
@@ -11137,16 +7825,16 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D117" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E117" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
